--- a/documents/Report/VER4-EXCEL-TIMELOG.xlsx
+++ b/documents/Report/VER4-EXCEL-TIMELOG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="PC-NOT SHOW OR WRITE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>NAME</t>
   </si>
@@ -29,799 +29,286 @@
     <t>G VALUE</t>
   </si>
   <si>
-    <t>EXECUTE TIME</t>
-  </si>
-  <si>
-    <t>../images/tomatos/10.jpg</t>
+    <t>EXECUTE TIME (ms)</t>
+  </si>
+  <si>
+    <t>EXECUTE TIME (s)</t>
+  </si>
+  <si>
+    <t>./images/tomatos/10.jpg</t>
   </si>
   <si>
     <t>115.22</t>
   </si>
   <si>
-    <t>0.00293568</t>
-  </si>
-  <si>
-    <t>../images/tomatos/11.jpg</t>
-  </si>
-  <si>
-    <t>0.00215896</t>
-  </si>
-  <si>
-    <t>../images/tomatos/12.jpg</t>
-  </si>
-  <si>
-    <t>0.0285699</t>
-  </si>
-  <si>
-    <t>../images/tomatos/13.jpg</t>
-  </si>
-  <si>
-    <t>0.0370571</t>
-  </si>
-  <si>
-    <t>../images/tomatos/14.jpg</t>
-  </si>
-  <si>
-    <t>0.00212796</t>
-  </si>
-  <si>
-    <t>../images/tomatos/15.jpg</t>
-  </si>
-  <si>
-    <t>0.00336712</t>
-  </si>
-  <si>
-    <t>../images/tomatos/16.jpg</t>
-  </si>
-  <si>
-    <t>0.00292557</t>
-  </si>
-  <si>
-    <t>../images/tomatos/17.jpg</t>
-  </si>
-  <si>
-    <t>0.00275295</t>
-  </si>
-  <si>
-    <t>../images/tomatos/18.jpg</t>
-  </si>
-  <si>
-    <t>0.00352185</t>
-  </si>
-  <si>
-    <t>../images/tomatos/19.jpg</t>
-  </si>
-  <si>
-    <t>0.00246219</t>
-  </si>
-  <si>
-    <t>../images/tomatos/1.jpg</t>
-  </si>
-  <si>
-    <t>0.00230006</t>
-  </si>
-  <si>
-    <t>../images/tomatos/20.jpg</t>
-  </si>
-  <si>
-    <t>0.00183453</t>
-  </si>
-  <si>
-    <t>../images/tomatos/21.jpg</t>
-  </si>
-  <si>
-    <t>0.00224482</t>
-  </si>
-  <si>
-    <t>../images/tomatos/22.jpg</t>
-  </si>
-  <si>
-    <t>0.00246007</t>
-  </si>
-  <si>
-    <t>../images/tomatos/23.jpg</t>
-  </si>
-  <si>
-    <t>0.00260668</t>
-  </si>
-  <si>
-    <t>../images/tomatos/24.jpg</t>
-  </si>
-  <si>
-    <t>0.00148445</t>
-  </si>
-  <si>
-    <t>../images/tomatos/25.jpg</t>
-  </si>
-  <si>
-    <t>0.00790706</t>
-  </si>
-  <si>
-    <t>../images/tomatos/26.jpg</t>
-  </si>
-  <si>
-    <t>0.00777232</t>
-  </si>
-  <si>
-    <t>../images/tomatos/27.jpg</t>
-  </si>
-  <si>
-    <t>0.00502706</t>
-  </si>
-  <si>
-    <t>../images/tomatos/28.jpg</t>
-  </si>
-  <si>
-    <t>0.00308254</t>
-  </si>
-  <si>
-    <t>../images/tomatos/29.jpg</t>
-  </si>
-  <si>
-    <t>0.0124361</t>
-  </si>
-  <si>
-    <t>../images/tomatos/2.jpg</t>
-  </si>
-  <si>
-    <t>0.00205828</t>
-  </si>
-  <si>
-    <t>../images/tomatos/30.jpg</t>
-  </si>
-  <si>
-    <t>0.0310423</t>
-  </si>
-  <si>
-    <t>../images/tomatos/31.jpg</t>
-  </si>
-  <si>
-    <t>0.00299459</t>
-  </si>
-  <si>
-    <t>../images/tomatos/32.jpg</t>
+    <t>./images/tomatos/11.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/12.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/13.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/14.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/15.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/16.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/17.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/18.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/19.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/1.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/20.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/21.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/22.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/23.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/24.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/25.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/26.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/27.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/28.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/29.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/2.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/30.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/31.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/32.jpg</t>
   </si>
   <si>
     <t>135.33</t>
   </si>
   <si>
-    <t>0.00326775</t>
-  </si>
-  <si>
-    <t>../images/tomatos/33.jpg</t>
-  </si>
-  <si>
-    <t>0.00150147</t>
-  </si>
-  <si>
-    <t>../images/tomatos/34.jpg</t>
-  </si>
-  <si>
-    <t>0.00389613</t>
-  </si>
-  <si>
-    <t>../images/tomatos/35.jpeg</t>
-  </si>
-  <si>
-    <t>0.00230373</t>
-  </si>
-  <si>
-    <t>../images/tomatos/35.jpg</t>
+    <t>./images/tomatos/33.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/34.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/35.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/35.jpg</t>
   </si>
   <si>
     <t>133.71</t>
   </si>
   <si>
-    <t>0.00158919</t>
-  </si>
-  <si>
-    <t>../images/tomatos/36.jpeg</t>
-  </si>
-  <si>
-    <t>0.00218156</t>
-  </si>
-  <si>
-    <t>../images/tomatos/36.jpg</t>
-  </si>
-  <si>
-    <t>0.0137292</t>
-  </si>
-  <si>
-    <t>../images/tomatos/37.jpeg</t>
-  </si>
-  <si>
-    <t>0.0022954</t>
-  </si>
-  <si>
-    <t>../images/tomatos/37.jpg</t>
-  </si>
-  <si>
-    <t>0.00183506</t>
-  </si>
-  <si>
-    <t>../images/tomatos/38.jpeg</t>
-  </si>
-  <si>
-    <t>0.00236271</t>
-  </si>
-  <si>
-    <t>../images/tomatos/38.png</t>
-  </si>
-  <si>
-    <t>0.000983033</t>
-  </si>
-  <si>
-    <t>../images/tomatos/39.jpg</t>
-  </si>
-  <si>
-    <t>0.00286574</t>
-  </si>
-  <si>
-    <t>../images/tomatos/39.png</t>
-  </si>
-  <si>
-    <t>0.00178119</t>
-  </si>
-  <si>
-    <t>../images/tomatos/40.png</t>
-  </si>
-  <si>
-    <t>0.0106576</t>
-  </si>
-  <si>
-    <t>../images/tomatos/41.jpeg</t>
+    <t>./images/tomatos/36.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/36.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/37.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/37.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/38.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/38.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/39.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/39.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/40.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/41.jpeg</t>
   </si>
   <si>
     <t>166.53</t>
   </si>
   <si>
-    <t>0.00306914</t>
-  </si>
-  <si>
-    <t>../images/tomatos/41.png</t>
-  </si>
-  <si>
-    <t>0.00668173</t>
-  </si>
-  <si>
-    <t>../images/tomatos/42.jpeg</t>
+    <t>./images/tomatos/41.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/42.jpeg</t>
   </si>
   <si>
     <t>177.62</t>
   </si>
   <si>
-    <t>0.0021843</t>
-  </si>
-  <si>
-    <t>../images/tomatos/42.png</t>
-  </si>
-  <si>
-    <t>0.00152035</t>
-  </si>
-  <si>
-    <t>../images/tomatos/43.jpeg</t>
-  </si>
-  <si>
-    <t>0.00228123</t>
-  </si>
-  <si>
-    <t>../images/tomatos/43.png</t>
-  </si>
-  <si>
-    <t>0.00127475</t>
-  </si>
-  <si>
-    <t>../images/tomatos/4.jpg</t>
-  </si>
-  <si>
-    <t>0.00225712</t>
-  </si>
-  <si>
-    <t>../images/tomatos/5.jpg</t>
-  </si>
-  <si>
-    <t>0.00199654</t>
-  </si>
-  <si>
-    <t>../images/tomatos/6.jpg</t>
-  </si>
-  <si>
-    <t>0.00192457</t>
-  </si>
-  <si>
-    <t>../images/tomatos/7.jpg</t>
-  </si>
-  <si>
-    <t>0.00160432</t>
-  </si>
-  <si>
-    <t>../images/tomatos/8.jpg</t>
-  </si>
-  <si>
-    <t>0.00224659</t>
-  </si>
-  <si>
-    <t>../images/tomatos/9.jpg</t>
-  </si>
-  <si>
-    <t>0.00638813</t>
-  </si>
-  <si>
-    <t>../images/tomatos/rename.sh~</t>
-  </si>
-  <si>
-    <t>0.000489915</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t10.jpg</t>
-  </si>
-  <si>
-    <t>0.0136632</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t11.jpg</t>
-  </si>
-  <si>
-    <t>0.0208188</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t12.jpeg</t>
-  </si>
-  <si>
-    <t>0.00192802</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t13.jpeg</t>
-  </si>
-  <si>
-    <t>0.00241625</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t14.jpeg</t>
-  </si>
-  <si>
-    <t>0.00217033</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t15.png</t>
-  </si>
-  <si>
-    <t>0.0199621</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t16.jpeg</t>
-  </si>
-  <si>
-    <t>0.00290556</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t17.jpg</t>
-  </si>
-  <si>
-    <t>0.0127578</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t18.jpeg</t>
-  </si>
-  <si>
-    <t>0.00254769</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t18.jpg</t>
-  </si>
-  <si>
-    <t>0.00268426</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t19.jpg</t>
-  </si>
-  <si>
-    <t>0.00500663</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t1.png</t>
-  </si>
-  <si>
-    <t>0.00649625</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t20.jpg</t>
-  </si>
-  <si>
-    <t>0.0120331</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t21.jpeg</t>
-  </si>
-  <si>
-    <t>0.00240208</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t22.jpg</t>
-  </si>
-  <si>
-    <t>0.00986417</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t23.jpeg</t>
-  </si>
-  <si>
-    <t>0.00233822</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t24.jpeg</t>
-  </si>
-  <si>
-    <t>0.002459</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t25.jpeg</t>
-  </si>
-  <si>
-    <t>0.00223644</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t26.jpeg</t>
-  </si>
-  <si>
-    <t>0.00218249</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t27.jpeg</t>
-  </si>
-  <si>
-    <t>0.00224828</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t28.jpeg</t>
-  </si>
-  <si>
-    <t>0.00199571</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t2.jpg</t>
-  </si>
-  <si>
-    <t>0.00793886</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t30.jpeg</t>
+    <t>./images/tomatos/42.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/43.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/43.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/4.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/5.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/6.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/7.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/8.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/9.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/rename.sh~</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t10.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t11.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t12.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t13.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t14.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t15.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t16.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t17.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t18.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t18.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t19.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t1.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t20.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t21.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t22.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t23.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t24.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t25.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t26.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t27.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t28.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t2.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t30.jpeg</t>
   </si>
   <si>
     <t>151.37</t>
   </si>
   <si>
-    <t>0.00234122</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t31.jpeg</t>
-  </si>
-  <si>
-    <t>0.00192459</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t32.jpeg</t>
-  </si>
-  <si>
-    <t>0.00212667</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t33.jpeg</t>
-  </si>
-  <si>
-    <t>0.00204485</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t34.jpeg</t>
-  </si>
-  <si>
-    <t>0.00258276</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t3.jpeg</t>
-  </si>
-  <si>
-    <t>0.00205411</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t4.png</t>
-  </si>
-  <si>
-    <t>0.0102924</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t5.png</t>
-  </si>
-  <si>
-    <t>0.00633697</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t6.jpeg</t>
-  </si>
-  <si>
-    <t>0.00285684</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t7.jpeg</t>
-  </si>
-  <si>
-    <t>0.00271321</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t8.jpeg</t>
-  </si>
-  <si>
-    <t>0.00268493</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t9.jpeg</t>
-  </si>
-  <si>
-    <t>0.00207064</t>
-  </si>
-  <si>
-    <t>../images/tomatos/t9.jpg</t>
-  </si>
-  <si>
-    <t>0.00792036</t>
-  </si>
-  <si>
-    <t>0.00317322</t>
-  </si>
-  <si>
-    <t>0.0015713</t>
-  </si>
-  <si>
-    <t>0.0230303</t>
-  </si>
-  <si>
-    <t>0.0260351</t>
-  </si>
-  <si>
-    <t>0.00221171</t>
-  </si>
-  <si>
-    <t>0.0027558</t>
-  </si>
-  <si>
-    <t>0.00290222</t>
-  </si>
-  <si>
-    <t>0.00273728</t>
-  </si>
-  <si>
-    <t>0.00284329</t>
-  </si>
-  <si>
-    <t>0.00288469</t>
-  </si>
-  <si>
-    <t>0.0022991</t>
-  </si>
-  <si>
-    <t>0.00189561</t>
-  </si>
-  <si>
-    <t>0.00281586</t>
-  </si>
-  <si>
-    <t>0.00230522</t>
-  </si>
-  <si>
-    <t>0.001986</t>
-  </si>
-  <si>
-    <t>0.00177805</t>
-  </si>
-  <si>
-    <t>0.00673111</t>
-  </si>
-  <si>
-    <t>0.0108944</t>
-  </si>
-  <si>
-    <t>0.00588821</t>
-  </si>
-  <si>
-    <t>0.00281901</t>
-  </si>
-  <si>
-    <t>0.0126086</t>
-  </si>
-  <si>
-    <t>0.00199575</t>
-  </si>
-  <si>
-    <t>0.0277305</t>
-  </si>
-  <si>
-    <t>0.00395621</t>
-  </si>
-  <si>
-    <t>0.00334411</t>
-  </si>
-  <si>
-    <t>0.00169026</t>
-  </si>
-  <si>
-    <t>0.00303287</t>
-  </si>
-  <si>
-    <t>0.00213694</t>
-  </si>
-  <si>
-    <t>0.00155186</t>
-  </si>
-  <si>
-    <t>0.00274795</t>
-  </si>
-  <si>
-    <t>0.0153943</t>
-  </si>
-  <si>
-    <t>0.00335037</t>
-  </si>
-  <si>
-    <t>0.00213038</t>
-  </si>
-  <si>
-    <t>0.00241517</t>
-  </si>
-  <si>
-    <t>0.00104752</t>
-  </si>
-  <si>
-    <t>0.00332568</t>
-  </si>
-  <si>
-    <t>0.00167704</t>
-  </si>
-  <si>
-    <t>0.01142</t>
-  </si>
-  <si>
-    <t>0.00281221</t>
-  </si>
-  <si>
-    <t>0.00641229</t>
-  </si>
-  <si>
-    <t>0.00252651</t>
-  </si>
-  <si>
-    <t>0.00158828</t>
-  </si>
-  <si>
-    <t>0.00359066</t>
-  </si>
-  <si>
-    <t>0.00122224</t>
-  </si>
-  <si>
-    <t>0.00217223</t>
-  </si>
-  <si>
-    <t>0.00289575</t>
-  </si>
-  <si>
-    <t>0.00264462</t>
-  </si>
-  <si>
-    <t>0.00183895</t>
-  </si>
-  <si>
-    <t>0.00238469</t>
-  </si>
-  <si>
-    <t>0.00638012</t>
-  </si>
-  <si>
-    <t>0.000557774</t>
-  </si>
-  <si>
-    <t>0.0134716</t>
-  </si>
-  <si>
-    <t>0.0189719</t>
-  </si>
-  <si>
-    <t>0.00246927</t>
-  </si>
-  <si>
-    <t>0.00285215</t>
-  </si>
-  <si>
-    <t>0.00373048</t>
-  </si>
-  <si>
-    <t>0.017283</t>
-  </si>
-  <si>
-    <t>0.00240121</t>
-  </si>
-  <si>
-    <t>0.0128731</t>
-  </si>
-  <si>
-    <t>0.00254326</t>
-  </si>
-  <si>
-    <t>0.0024026</t>
-  </si>
-  <si>
-    <t>0.00499015</t>
-  </si>
-  <si>
-    <t>0.0081029</t>
-  </si>
-  <si>
-    <t>0.0108622</t>
-  </si>
-  <si>
-    <t>0.00326572</t>
-  </si>
-  <si>
-    <t>0.0121852</t>
-  </si>
-  <si>
-    <t>0.00237747</t>
-  </si>
-  <si>
-    <t>0.00235159</t>
-  </si>
-  <si>
-    <t>0.00222486</t>
-  </si>
-  <si>
-    <t>0.00174998</t>
-  </si>
-  <si>
-    <t>0.00193791</t>
-  </si>
-  <si>
-    <t>0.00199539</t>
-  </si>
-  <si>
-    <t>0.0103198</t>
-  </si>
-  <si>
-    <t>0.00252718</t>
-  </si>
-  <si>
-    <t>0.00212909</t>
-  </si>
-  <si>
-    <t>0.00275148</t>
-  </si>
-  <si>
-    <t>0.00295424</t>
-  </si>
-  <si>
-    <t>0.00323276</t>
-  </si>
-  <si>
-    <t>0.00189341</t>
-  </si>
-  <si>
-    <t>0.0108356</t>
-  </si>
-  <si>
-    <t>0.00750626</t>
-  </si>
-  <si>
-    <t>0.00213388</t>
-  </si>
-  <si>
-    <t>0.00316305</t>
-  </si>
-  <si>
-    <t>0.00345106</t>
-  </si>
-  <si>
-    <t>0.00216892</t>
-  </si>
-  <si>
-    <t>0.00894018</t>
+    <t>./images/tomatos/t31.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t32.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t33.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t34.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t3.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t4.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t5.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t6.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t7.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t8.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t9.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t9.jpg</t>
   </si>
 </sst>
 </file>
@@ -1810,22 +1297,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="31.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="14.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1841,10 +1329,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>140</v>
@@ -1853,13 +1344,17 @@
         <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2">
+        <v>3469</v>
+      </c>
+      <c r="F2">
+        <f>E2/1000000</f>
+        <v>0.003469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1872,13 +1367,17 @@
       <c r="D3" s="5">
         <v>905034</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">E3/1000000</f>
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>559</v>
@@ -1889,13 +1388,17 @@
       <c r="D4" s="5">
         <v>135391</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2">
+        <v>26148</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.026148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>572</v>
@@ -1906,13 +1409,17 @@
       <c r="D5" s="5">
         <v>135266</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2">
+        <v>33881</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.033881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>217</v>
@@ -1923,13 +1430,17 @@
       <c r="D6" s="5">
         <v>957038</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2">
+        <v>2667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.002667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>196</v>
@@ -1940,13 +1451,17 @@
       <c r="D7" s="5">
         <v>758547</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2">
+        <v>3145</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.003145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>159</v>
@@ -1957,13 +1472,17 @@
       <c r="D8" s="5">
         <v>729684</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2">
+        <v>2737</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.002737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>179</v>
@@ -1974,13 +1493,17 @@
       <c r="D9" s="5">
         <v>137681</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <v>3468</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.003468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>174</v>
@@ -1991,13 +1514,17 @@
       <c r="D10" s="5">
         <v>471802</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2">
+        <v>2900</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.0029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>192</v>
@@ -2008,13 +1535,17 @@
       <c r="D11" s="5">
         <v>654036</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2">
+        <v>2467</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.002467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>206</v>
@@ -2025,13 +1556,17 @@
       <c r="D12" s="5">
         <v>66314</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2">
+        <v>2736</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.002736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>126</v>
@@ -2042,13 +1577,17 @@
       <c r="D13" s="5">
         <v>907509</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2">
+        <v>2064</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.002064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>192</v>
@@ -2059,13 +1598,17 @@
       <c r="D14" s="5">
         <v>554706</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="2">
+        <v>2258</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.002258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>201</v>
@@ -2076,13 +1619,17 @@
       <c r="D15" s="5">
         <v>72962</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2">
+        <v>3353</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.003353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>188</v>
@@ -2093,13 +1640,17 @@
       <c r="D16" s="5">
         <v>100982</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.002015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>117</v>
@@ -2110,13 +1661,17 @@
       <c r="D17" s="5">
         <v>110061</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="2">
+        <v>2185</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.002185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>208</v>
@@ -2127,13 +1682,17 @@
       <c r="D18" s="5">
         <v>101171</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="2">
+        <v>6295</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.006295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>339</v>
@@ -2144,13 +1703,17 @@
       <c r="D19" s="5">
         <v>909804</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="2">
+        <v>9301</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.009301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>226</v>
@@ -2161,13 +1724,17 @@
       <c r="D20" s="5">
         <v>166624</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2">
+        <v>5214</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.005214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>192</v>
@@ -2178,13 +1745,17 @@
       <c r="D21" s="5">
         <v>183666</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="2">
+        <v>4413</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.004413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>528</v>
@@ -2195,13 +1766,17 @@
       <c r="D22" s="5">
         <v>947916</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="2">
+        <v>12194</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.012194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
         <v>145</v>
@@ -2212,13 +1787,17 @@
       <c r="D23" s="5">
         <v>641592</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="2">
+        <v>2599</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.002599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>451</v>
@@ -2229,13 +1808,17 @@
       <c r="D24" s="5">
         <v>922615</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="2">
+        <v>24723</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.024723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>164</v>
@@ -2246,13 +1829,17 @@
       <c r="D25" s="5">
         <v>928778</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="2">
+        <v>2179</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.002179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>176</v>
@@ -2261,15 +1848,19 @@
         <v>171</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3387</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.003387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>131</v>
@@ -2280,13 +1871,17 @@
       <c r="D27" s="5">
         <v>668631</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="2">
+        <v>1515</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.001515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>242</v>
@@ -2297,13 +1892,17 @@
       <c r="D28" s="5">
         <v>106303</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="2">
+        <v>3469</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.003469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
         <v>144</v>
@@ -2314,13 +1913,17 @@
       <c r="D29" s="5">
         <v>180546</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="2">
+        <v>2027</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.002027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>116</v>
@@ -2329,15 +1932,19 @@
         <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1555</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.001555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>137</v>
@@ -2348,13 +1955,17 @@
       <c r="D31" s="5">
         <v>143426</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="2">
+        <v>2603</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.002603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
         <v>594</v>
@@ -2365,13 +1976,17 @@
       <c r="D32" s="5">
         <v>713091</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="2">
+        <v>13833</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.013833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3">
         <v>153</v>
@@ -2382,13 +1997,17 @@
       <c r="D33" s="5">
         <v>182352</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="2">
+        <v>2458</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.002458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>219</v>
@@ -2399,13 +2018,17 @@
       <c r="D34" s="5">
         <v>103443</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="2">
+        <v>2305</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.002305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
         <v>176</v>
@@ -2416,13 +2039,17 @@
       <c r="D35" s="5">
         <v>159832</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="2">
+        <v>2247</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="1">E35/1000000</f>
+        <v>0.002247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
         <v>48</v>
@@ -2433,13 +2060,17 @@
       <c r="D36" s="5">
         <v>683789</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="2">
+        <v>1044</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.001044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
         <v>187</v>
@@ -2450,13 +2081,17 @@
       <c r="D37" s="5">
         <v>182373</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="2">
+        <v>3500</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.0035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
         <v>58</v>
@@ -2467,13 +2102,17 @@
       <c r="D38" s="5">
         <v>684542</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="2">
+        <v>1076</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.001076</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
         <v>565</v>
@@ -2484,13 +2123,17 @@
       <c r="D39" s="5">
         <v>715643</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="2">
+        <v>10648</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.010648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
         <v>145</v>
@@ -2499,15 +2142,19 @@
         <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2683</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.002683</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3">
         <v>236</v>
@@ -2518,13 +2165,17 @@
       <c r="D41" s="5">
         <v>725831</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="2">
+        <v>6633</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.006633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3">
         <v>188</v>
@@ -2533,15 +2184,19 @@
         <v>157</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2174</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.002174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
         <v>56</v>
@@ -2552,13 +2207,17 @@
       <c r="D43" s="5">
         <v>825704</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="2">
+        <v>1387</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.001387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3">
         <v>220</v>
@@ -2569,13 +2228,17 @@
       <c r="D44" s="5">
         <v>186084</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="2">
+        <v>2773</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.002773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3">
         <v>65</v>
@@ -2586,13 +2249,17 @@
       <c r="D45" s="5">
         <v>458201</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="2">
+        <v>1344</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.001344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3">
         <v>158</v>
@@ -2603,13 +2270,17 @@
       <c r="D46" s="5">
         <v>123861</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="2">
+        <v>2227</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.002227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
         <v>187</v>
@@ -2620,13 +2291,17 @@
       <c r="D47" s="5">
         <v>106562</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="2">
+        <v>2821</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.002821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3">
         <v>165</v>
@@ -2637,13 +2312,17 @@
       <c r="D48" s="5">
         <v>710279</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="2">
+        <v>2622</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.002622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
         <v>111</v>
@@ -2654,13 +2333,17 @@
       <c r="D49" s="5">
         <v>460223</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="2">
+        <v>1732</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.001732</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3">
         <v>156</v>
@@ -2671,13 +2354,17 @@
       <c r="D50" s="5">
         <v>115178</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="2">
+        <v>3403</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.003403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3">
         <v>160</v>
@@ -2688,13 +2375,17 @@
       <c r="D51" s="5">
         <v>135896</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="2">
+        <v>6686</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.006686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -2705,13 +2396,17 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="2">
+        <v>737</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.000737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3">
         <v>500</v>
@@ -2722,13 +2417,17 @@
       <c r="D53" s="5">
         <v>700898</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="2">
+        <v>11582</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.011582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3">
         <v>805</v>
@@ -2739,13 +2438,17 @@
       <c r="D54" s="5">
         <v>763285</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="2">
+        <v>19987</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.019987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3">
         <v>199</v>
@@ -2756,13 +2459,17 @@
       <c r="D55" s="5">
         <v>89964</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="2">
+        <v>1860</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.00186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3">
         <v>130</v>
@@ -2773,13 +2480,17 @@
       <c r="D56" s="5">
         <v>919513</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="2">
+        <v>2225</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.002225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>202</v>
@@ -2790,13 +2501,17 @@
       <c r="D57" s="5">
         <v>708067</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="2">
+        <v>2101</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.002101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>679</v>
@@ -2807,13 +2522,17 @@
       <c r="D58" s="5">
         <v>72782</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="2">
+        <v>17669</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.017669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>166</v>
@@ -2824,13 +2543,17 @@
       <c r="D59" s="5">
         <v>914047</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="2">
+        <v>2829</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.002829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>327</v>
@@ -2841,13 +2564,17 @@
       <c r="D60" s="5">
         <v>86392</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="2">
+        <v>11202</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.011202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>167</v>
@@ -2858,13 +2585,17 @@
       <c r="D61" s="5">
         <v>359749</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="2">
+        <v>2405</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.002405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>199</v>
@@ -2875,13 +2606,17 @@
       <c r="D62" s="5">
         <v>984563</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="2">
+        <v>2777</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.002777</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>299</v>
@@ -2892,13 +2627,17 @@
       <c r="D63" s="5">
         <v>639523</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="2">
+        <v>5059</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.005059</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>308</v>
@@ -2909,13 +2648,17 @@
       <c r="D64" s="5">
         <v>307098</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="2">
+        <v>7449</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.007449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>458</v>
@@ -2926,13 +2669,17 @@
       <c r="D65" s="5">
         <v>421486</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="2">
+        <v>11186</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.011186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>175</v>
@@ -2943,13 +2690,17 @@
       <c r="D66" s="5">
         <v>164485</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" s="2">
+        <v>2390</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.00239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3">
         <v>414</v>
@@ -2960,13 +2711,17 @@
       <c r="D67" s="5">
         <v>185689</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="2">
+        <v>12114</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F87" si="2">E67/1000000</f>
+        <v>0.012114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3">
         <v>172</v>
@@ -2977,13 +2732,17 @@
       <c r="D68" s="5">
         <v>158829</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="2">
+        <v>2622</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.002622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3">
         <v>151</v>
@@ -2994,13 +2753,17 @@
       <c r="D69" s="5">
         <v>152779</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="2">
+        <v>1988</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.001988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3">
         <v>148</v>
@@ -3011,13 +2774,17 @@
       <c r="D70" s="5">
         <v>210305</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="2">
+        <v>2501</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0.002501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3">
         <v>123</v>
@@ -3028,13 +2795,17 @@
       <c r="D71" s="5">
         <v>201678</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="2">
+        <v>1827</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0.001827</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3">
         <v>150</v>
@@ -3045,13 +2816,17 @@
       <c r="D72" s="5">
         <v>152771</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="2">
+        <v>2106</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.002106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3">
         <v>153</v>
@@ -3062,13 +2837,17 @@
       <c r="D73" s="5">
         <v>151764</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="2">
+        <v>2423</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0.002423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3">
         <v>455</v>
@@ -3079,13 +2858,17 @@
       <c r="D74" s="5">
         <v>227503</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="2">
+        <v>12217</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0.012217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3">
         <v>183</v>
@@ -3094,15 +2877,19 @@
         <v>194</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2745</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0.002745</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3">
         <v>192</v>
@@ -3113,13 +2900,17 @@
       <c r="D76" s="5">
         <v>180099</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="2">
+        <v>2084</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0.002084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3">
         <v>86</v>
@@ -3130,13 +2921,17 @@
       <c r="D77" s="5">
         <v>195329</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="2">
+        <v>2680</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0.00268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3">
         <v>141</v>
@@ -3147,13 +2942,17 @@
       <c r="D78" s="5">
         <v>154378</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="2">
+        <v>2134</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0.002134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3">
         <v>101</v>
@@ -3164,13 +2963,17 @@
       <c r="D79" s="5">
         <v>174739</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="2">
+        <v>2778</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0.002778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3">
         <v>218</v>
@@ -3181,13 +2984,17 @@
       <c r="D80" s="5">
         <v>635601</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="2">
+        <v>2225</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0.002225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B81" s="3">
         <v>423</v>
@@ -3198,13 +3005,17 @@
       <c r="D81" s="5">
         <v>484574</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="2">
+        <v>10513</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0.010513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B82" s="3">
         <v>306</v>
@@ -3215,13 +3026,17 @@
       <c r="D82" s="5">
         <v>617479</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="2">
+        <v>7389</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0.007389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B83" s="3">
         <v>166</v>
@@ -3232,13 +3047,17 @@
       <c r="D83" s="5">
         <v>889166</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="2">
+        <v>2832</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0.002832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="B84" s="3">
         <v>182</v>
@@ -3249,13 +3068,17 @@
       <c r="D84" s="5">
         <v>736389</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="2">
+        <v>2278</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0.002278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B85" s="3">
         <v>146</v>
@@ -3266,13 +3089,17 @@
       <c r="D85" s="5">
         <v>832886</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="2">
+        <v>2750</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0.00275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B86" s="3">
         <v>171</v>
@@ -3283,13 +3110,17 @@
       <c r="D86" s="5">
         <v>801645</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="2">
+        <v>2399</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0.002399</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3">
         <v>408</v>
@@ -3300,8 +3131,12 @@
       <c r="D87" s="5">
         <v>761394</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>182</v>
+      <c r="E87" s="2">
+        <v>9262</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0.009262</v>
       </c>
     </row>
   </sheetData>
@@ -3313,22 +3148,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="31.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="12.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="9.28571428571429" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
+    <col min="5" max="6" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3344,10 +3179,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>140</v>
@@ -3356,13 +3194,17 @@
         <v>165</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2598</v>
+      </c>
+      <c r="F2">
+        <f>E2/1000000</f>
+        <v>0.002598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3375,13 +3217,17 @@
       <c r="D3" s="5">
         <v>905034</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2">
+        <v>1838</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">E3/1000000</f>
+        <v>0.001838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>559</v>
@@ -3392,13 +3238,17 @@
       <c r="D4" s="5">
         <v>135391</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2">
+        <v>23878</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.023878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>572</v>
@@ -3409,13 +3259,17 @@
       <c r="D5" s="5">
         <v>135266</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="2">
+        <v>27192</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.027192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>217</v>
@@ -3426,13 +3280,17 @@
       <c r="D6" s="5">
         <v>957038</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2">
+        <v>2596</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.002596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>196</v>
@@ -3443,13 +3301,17 @@
       <c r="D7" s="5">
         <v>758547</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="2">
+        <v>3637</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.003637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>159</v>
@@ -3460,13 +3322,17 @@
       <c r="D8" s="5">
         <v>729684</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="2">
+        <v>2193</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.002193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>179</v>
@@ -3477,13 +3343,17 @@
       <c r="D9" s="5">
         <v>137681</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="2">
+        <v>3661</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.003661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>174</v>
@@ -3494,13 +3364,17 @@
       <c r="D10" s="5">
         <v>471802</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="2">
+        <v>3052</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.003052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>192</v>
@@ -3511,13 +3385,17 @@
       <c r="D11" s="5">
         <v>654036</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2">
+        <v>3381</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.003381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>206</v>
@@ -3528,13 +3406,17 @@
       <c r="D12" s="5">
         <v>66314</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="2">
+        <v>2466</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.002466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>126</v>
@@ -3545,13 +3427,17 @@
       <c r="D13" s="5">
         <v>907509</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="2">
+        <v>2572</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.002572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>192</v>
@@ -3562,13 +3448,17 @@
       <c r="D14" s="5">
         <v>554706</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="2">
+        <v>2543</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.002543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B15" s="3">
         <v>201</v>
@@ -3579,13 +3469,17 @@
       <c r="D15" s="5">
         <v>72962</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2">
+        <v>2472</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.002472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>188</v>
@@ -3596,13 +3490,17 @@
       <c r="D16" s="5">
         <v>100982</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="2">
+        <v>2493</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.002493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>117</v>
@@ -3613,13 +3511,17 @@
       <c r="D17" s="5">
         <v>110061</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="2">
+        <v>1915</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.001915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>208</v>
@@ -3630,13 +3532,17 @@
       <c r="D18" s="5">
         <v>101171</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="2">
+        <v>6142</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.006142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>339</v>
@@ -3647,13 +3553,17 @@
       <c r="D19" s="5">
         <v>909804</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="2">
+        <v>7858</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.007858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>226</v>
@@ -3664,13 +3574,17 @@
       <c r="D20" s="5">
         <v>166624</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2">
+        <v>5117</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.005117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>192</v>
@@ -3681,13 +3595,17 @@
       <c r="D21" s="5">
         <v>183666</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="2">
+        <v>3137</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.003137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>528</v>
@@ -3698,13 +3616,17 @@
       <c r="D22" s="5">
         <v>947916</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="2">
+        <v>12094</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.012094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
         <v>145</v>
@@ -3715,13 +3637,17 @@
       <c r="D23" s="5">
         <v>641592</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="2">
+        <v>2212</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.002212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>451</v>
@@ -3732,13 +3658,17 @@
       <c r="D24" s="5">
         <v>922615</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="2">
+        <v>31684</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.031684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>164</v>
@@ -3749,13 +3679,17 @@
       <c r="D25" s="5">
         <v>928778</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="2">
+        <v>2490</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.00249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>176</v>
@@ -3764,15 +3698,19 @@
         <v>171</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3261</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.003261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>131</v>
@@ -3783,13 +3721,17 @@
       <c r="D27" s="5">
         <v>668631</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="2">
+        <v>2127</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.002127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>242</v>
@@ -3800,13 +3742,17 @@
       <c r="D28" s="5">
         <v>106303</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="2">
+        <v>3714</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.003714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3">
         <v>144</v>
@@ -3817,13 +3763,17 @@
       <c r="D29" s="5">
         <v>180546</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="2">
+        <v>2169</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.002169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
         <v>116</v>
@@ -3832,15 +3782,19 @@
         <v>123</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1551</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.001551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>137</v>
@@ -3851,13 +3805,17 @@
       <c r="D31" s="5">
         <v>143426</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="2">
+        <v>2218</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.002218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
         <v>594</v>
@@ -3868,13 +3826,17 @@
       <c r="D32" s="5">
         <v>713091</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="2">
+        <v>15181</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.015181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3">
         <v>153</v>
@@ -3885,13 +3847,17 @@
       <c r="D33" s="5">
         <v>182352</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="2">
+        <v>2242</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.002242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>219</v>
@@ -3902,13 +3868,17 @@
       <c r="D34" s="5">
         <v>103443</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="2">
+        <v>1953</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.001953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
         <v>176</v>
@@ -3919,13 +3889,17 @@
       <c r="D35" s="5">
         <v>159832</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="2">
+        <v>2332</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F66" si="1">E35/1000000</f>
+        <v>0.002332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
         <v>48</v>
@@ -3936,13 +3910,17 @@
       <c r="D36" s="5">
         <v>683789</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="2">
+        <v>1499</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.001499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
         <v>187</v>
@@ -3953,13 +3931,17 @@
       <c r="D37" s="5">
         <v>182373</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="2">
+        <v>3619</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0.003619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
         <v>58</v>
@@ -3970,13 +3952,17 @@
       <c r="D38" s="5">
         <v>684542</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="2">
+        <v>1436</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.001436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
         <v>565</v>
@@ -3987,13 +3973,17 @@
       <c r="D39" s="5">
         <v>715643</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="2">
+        <v>10673</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0.010673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
         <v>145</v>
@@ -4002,15 +3992,19 @@
         <v>111</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2828</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0.002828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3">
         <v>236</v>
@@ -4021,13 +4015,17 @@
       <c r="D41" s="5">
         <v>725831</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="2">
+        <v>5784</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0.005784</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3">
         <v>188</v>
@@ -4036,15 +4034,19 @@
         <v>157</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2605</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0.002605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
         <v>56</v>
@@ -4055,13 +4057,17 @@
       <c r="D43" s="5">
         <v>825704</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="2">
+        <v>1790</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0.00179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3">
         <v>220</v>
@@ -4072,13 +4078,17 @@
       <c r="D44" s="5">
         <v>186084</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="2">
+        <v>2492</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0.002492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B45" s="3">
         <v>65</v>
@@ -4089,13 +4099,17 @@
       <c r="D45" s="5">
         <v>458201</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="2">
+        <v>1672</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0.001672</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3">
         <v>158</v>
@@ -4106,13 +4120,17 @@
       <c r="D46" s="5">
         <v>123861</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="2">
+        <v>2246</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0.002246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B47" s="3">
         <v>187</v>
@@ -4123,13 +4141,17 @@
       <c r="D47" s="5">
         <v>106562</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="2">
+        <v>2422</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0.002422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3">
         <v>165</v>
@@ -4140,13 +4162,17 @@
       <c r="D48" s="5">
         <v>710279</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="2">
+        <v>2162</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.002162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
         <v>111</v>
@@ -4157,13 +4183,17 @@
       <c r="D49" s="5">
         <v>460223</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="2">
+        <v>1445</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.001445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3">
         <v>156</v>
@@ -4174,13 +4204,17 @@
       <c r="D50" s="5">
         <v>115178</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="2">
+        <v>2463</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.002463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3">
         <v>160</v>
@@ -4191,13 +4225,17 @@
       <c r="D51" s="5">
         <v>135896</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="2">
+        <v>7039</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.007039</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -4208,13 +4246,17 @@
       <c r="D52" s="5">
         <v>0</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="2">
+        <v>821</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.000821</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3">
         <v>500</v>
@@ -4225,13 +4267,17 @@
       <c r="D53" s="5">
         <v>700898</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="2">
+        <v>12134</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.012134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B54" s="3">
         <v>805</v>
@@ -4242,13 +4288,17 @@
       <c r="D54" s="5">
         <v>763285</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="2">
+        <v>19418</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.019418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B55" s="3">
         <v>199</v>
@@ -4259,13 +4309,17 @@
       <c r="D55" s="5">
         <v>89964</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="2">
+        <v>1911</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.001911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3">
         <v>130</v>
@@ -4276,13 +4330,17 @@
       <c r="D56" s="5">
         <v>919513</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.002005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3">
         <v>202</v>
@@ -4293,13 +4351,17 @@
       <c r="D57" s="5">
         <v>708067</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="2">
+        <v>2940</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.00294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>679</v>
@@ -4310,13 +4372,17 @@
       <c r="D58" s="5">
         <v>72782</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="2">
+        <v>17304</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.017304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>166</v>
@@ -4327,13 +4393,17 @@
       <c r="D59" s="5">
         <v>914047</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="2">
+        <v>2576</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.002576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>327</v>
@@ -4344,13 +4414,17 @@
       <c r="D60" s="5">
         <v>86392</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="2">
+        <v>10187</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.010187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>167</v>
@@ -4361,13 +4435,17 @@
       <c r="D61" s="5">
         <v>359749</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="2">
+        <v>2280</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.00228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>199</v>
@@ -4378,13 +4456,17 @@
       <c r="D62" s="5">
         <v>984563</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="2">
+        <v>2549</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.002549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3">
         <v>299</v>
@@ -4395,13 +4477,17 @@
       <c r="D63" s="5">
         <v>639523</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="2">
+        <v>5310</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.00531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>308</v>
@@ -4412,13 +4498,17 @@
       <c r="D64" s="5">
         <v>307098</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="2">
+        <v>7869</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.007869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>458</v>
@@ -4429,13 +4519,17 @@
       <c r="D65" s="5">
         <v>421486</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="2">
+        <v>10701</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.010701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>175</v>
@@ -4446,13 +4540,17 @@
       <c r="D66" s="5">
         <v>164485</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="E66" s="2">
+        <v>2329</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.002329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3">
         <v>414</v>
@@ -4463,13 +4561,17 @@
       <c r="D67" s="5">
         <v>185689</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="E67" s="2">
+        <v>9930</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F87" si="2">E67/1000000</f>
+        <v>0.00993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3">
         <v>172</v>
@@ -4480,13 +4582,17 @@
       <c r="D68" s="5">
         <v>158829</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="E68" s="2">
+        <v>2783</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.002783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="B69" s="3">
         <v>151</v>
@@ -4497,13 +4603,17 @@
       <c r="D69" s="5">
         <v>152779</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="2">
+        <v>1975</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.001975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="B70" s="3">
         <v>148</v>
@@ -4514,13 +4624,17 @@
       <c r="D70" s="5">
         <v>210305</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="2">
+        <v>2204</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0.002204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3">
         <v>123</v>
@@ -4531,13 +4645,17 @@
       <c r="D71" s="5">
         <v>201678</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="2">
+        <v>2306</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0.002306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3">
         <v>150</v>
@@ -4548,13 +4666,17 @@
       <c r="D72" s="5">
         <v>152771</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="2">
+        <v>2177</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.002177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3">
         <v>153</v>
@@ -4565,13 +4687,17 @@
       <c r="D73" s="5">
         <v>151764</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3">
         <v>455</v>
@@ -4582,13 +4708,17 @@
       <c r="D74" s="5">
         <v>227503</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="2">
+        <v>7838</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0.007838</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3">
         <v>183</v>
@@ -4597,15 +4727,19 @@
         <v>194</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2534</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0.002534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="B76" s="3">
         <v>192</v>
@@ -4616,13 +4750,17 @@
       <c r="D76" s="5">
         <v>180099</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="2">
+        <v>2293</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>0.002293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3">
         <v>86</v>
@@ -4633,13 +4771,17 @@
       <c r="D77" s="5">
         <v>195329</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="2">
+        <v>2098</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>0.002098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3">
         <v>141</v>
@@ -4650,13 +4792,17 @@
       <c r="D78" s="5">
         <v>154378</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="2">
+        <v>2307</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0.002307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3">
         <v>101</v>
@@ -4667,13 +4813,17 @@
       <c r="D79" s="5">
         <v>174739</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="2">
+        <v>1964</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>0.001964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B80" s="3">
         <v>218</v>
@@ -4684,13 +4834,17 @@
       <c r="D80" s="5">
         <v>635601</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="2">
+        <v>2784</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>0.002784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B81" s="3">
         <v>423</v>
@@ -4701,13 +4855,17 @@
       <c r="D81" s="5">
         <v>484574</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="2">
+        <v>12869</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>0.012869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B82" s="3">
         <v>306</v>
@@ -4718,13 +4876,17 @@
       <c r="D82" s="5">
         <v>617479</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="2">
+        <v>12791</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0.012791</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B83" s="3">
         <v>166</v>
@@ -4735,13 +4897,17 @@
       <c r="D83" s="5">
         <v>889166</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="E83" s="2">
+        <v>2630</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>0.00263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="B84" s="3">
         <v>182</v>
@@ -4752,13 +4918,17 @@
       <c r="D84" s="5">
         <v>736389</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="E84" s="2">
+        <v>3184</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>0.003184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="B85" s="3">
         <v>146</v>
@@ -4769,13 +4939,17 @@
       <c r="D85" s="5">
         <v>832886</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="E85" s="2">
+        <v>3515</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0.003515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B86" s="3">
         <v>171</v>
@@ -4786,13 +4960,17 @@
       <c r="D86" s="5">
         <v>801645</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="2">
+        <v>2610</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0.00261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3">
         <v>408</v>
@@ -4803,8 +4981,12 @@
       <c r="D87" s="5">
         <v>761394</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>268</v>
+      <c r="E87" s="2">
+        <v>9661</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0.009661</v>
       </c>
     </row>
     <row r="89" spans="4:4">

--- a/documents/Report/VER4-EXCEL-TIMELOG.xlsx
+++ b/documents/Report/VER4-EXCEL-TIMELOG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="PC-NOT SHOW OR WRITE" sheetId="1" r:id="rId1"/>
@@ -40,79 +40,142 @@
     <t>EXE TIME RASPBERRY(s)</t>
   </si>
   <si>
-    <t>./images/tomatos/10.jpg</t>
+    <t>./images/tomatos/t11.jpg</t>
   </si>
   <si>
-    <t>115.22</t>
+    <t>./images/tomatos/t15.png</t>
   </si>
   <si>
-    <t>./images/tomatos/11.jpg</t>
+    <t>./images/tomatos/36.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/13.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/40.png</t>
   </si>
   <si>
     <t>./images/tomatos/12.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/13.jpg</t>
+    <t>./images/tomatos/29.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t10.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t20.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t2.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/30.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t4.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t22.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t9.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/26.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t17.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t1.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t5.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t19.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/34.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/41.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/27.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/43.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/37.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t3.jpeg</t>
   </si>
   <si>
     <t>./images/tomatos/14.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/15.jpg</t>
+    <t>./images/tomatos/25.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/16.jpg</t>
+    <t>./images/tomatos/1.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/17.jpg</t>
+    <t>./images/tomatos/t14.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/18.jpg</t>
+    <t>./images/tomatos/22.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t12.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t18.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/15.jpg</t>
   </si>
   <si>
     <t>./images/tomatos/19.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/1.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/20.jpg</t>
-  </si>
-  <si>
     <t>./images/tomatos/21.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/22.jpg</t>
+    <t>./images/tomatos/28.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t31.jpeg</t>
   </si>
   <si>
     <t>./images/tomatos/23.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/24.jpg</t>
+    <t>./images/tomatos/42.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/25.jpg</t>
+    <t>177.62</t>
   </si>
   <si>
-    <t>./images/tomatos/26.jpg</t>
+    <t>./images/tomatos/39.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/27.jpg</t>
+    <t>./images/tomatos/5.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/28.jpg</t>
+    <t>./images/tomatos/t30.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/29.jpg</t>
+    <t>151.37</t>
   </si>
   <si>
-    <t>./images/tomatos/2.jpg</t>
+    <t>./images/tomatos/t7.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/30.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/31.jpg</t>
+    <t>./images/tomatos/17.jpg</t>
   </si>
   <si>
     <t>./images/tomatos/32.jpg</t>
@@ -121,13 +184,106 @@
     <t>135.33</t>
   </si>
   <si>
+    <t>./images/tomatos/38.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t21.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/18.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t23.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t9.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t18.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t16.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t6.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/6.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/31.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/9.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/16.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/4.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/8.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/37.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t28.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t24.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t27.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t25.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t8.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/2.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/41.jpeg</t>
+  </si>
+  <si>
+    <t>166.53</t>
+  </si>
+  <si>
+    <t>./images/tomatos/35.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t33.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/10.jpg</t>
+  </si>
+  <si>
+    <t>115.22</t>
+  </si>
+  <si>
+    <t>./images/tomatos/36.jpeg</t>
+  </si>
+  <si>
     <t>./images/tomatos/33.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/34.jpg</t>
+    <t>./images/tomatos/t13.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/35.jpeg</t>
+    <t>./images/tomatos/20.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/11.jpg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/t26.jpeg</t>
+  </si>
+  <si>
+    <t>./images/tomatos/24.jpg</t>
   </si>
   <si>
     <t>./images/tomatos/35.jpg</t>
@@ -136,184 +292,28 @@
     <t>133.71</t>
   </si>
   <si>
-    <t>./images/tomatos/36.jpeg</t>
+    <t>./images/tomatos/7.jpg</t>
   </si>
   <si>
-    <t>./images/tomatos/36.jpg</t>
+    <t>./images/tomatos/t34.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/37.jpeg</t>
+    <t>./images/tomatos/t32.jpeg</t>
   </si>
   <si>
-    <t>./images/tomatos/37.jpg</t>
+    <t>./images/tomatos/43.png</t>
   </si>
   <si>
-    <t>./images/tomatos/38.jpeg</t>
+    <t>./images/tomatos/39.png</t>
+  </si>
+  <si>
+    <t>./images/tomatos/42.png</t>
   </si>
   <si>
     <t>./images/tomatos/38.png</t>
   </si>
   <si>
-    <t>./images/tomatos/39.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/39.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/40.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/41.jpeg</t>
-  </si>
-  <si>
-    <t>166.53</t>
-  </si>
-  <si>
-    <t>./images/tomatos/41.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/42.jpeg</t>
-  </si>
-  <si>
-    <t>177.62</t>
-  </si>
-  <si>
-    <t>./images/tomatos/42.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/43.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/43.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/4.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/5.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/6.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/7.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/8.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/9.jpg</t>
-  </si>
-  <si>
     <t>./images/tomatos/rename.sh~</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t10.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t11.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t12.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t13.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t14.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t15.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t16.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t17.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t18.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t18.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t19.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t1.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t20.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t21.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t22.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t23.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t24.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t25.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t26.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t27.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t28.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t2.jpg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t30.jpeg</t>
-  </si>
-  <si>
-    <t>151.37</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t31.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t32.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t33.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t34.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t3.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t4.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t5.png</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t6.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t7.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t8.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t9.jpeg</t>
-  </si>
-  <si>
-    <t>./images/tomatos/t9.jpg</t>
   </si>
   <si>
     <t>EXE TIME RASPBERRY (s)</t>
@@ -327,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -351,106 +351,6 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="-0.5"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -479,8 +379,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,8 +492,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,7 +515,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,43 +665,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,126 +696,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,6 +724,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -733,11 +757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,36 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -798,16 +798,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -826,112 +826,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,38 +940,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,12 +982,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1158,262 +1152,262 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>0.003469</c:v>
+                  <c:v>0.019987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0018</c:v>
+                  <c:v>0.017669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.026148</c:v>
+                  <c:v>0.013833</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.033881</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.010648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.026148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.012194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.011582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.011186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.012217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.024723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.010513</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.012114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.009262</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.009301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.011202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.007449</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.007389</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.005059</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.003469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.006633</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.005214</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.002773</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.002305</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.002225</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.002667</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="26">
+                  <c:v>0.006295</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.002736</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.002101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.003353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00186</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.002777</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.003145</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="33">
+                  <c:v>0.002467</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.002258</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.004413</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.002084</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.002015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.002174</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.002821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.002745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.002278</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.003468</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.003387</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.002247</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.00239</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0029</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.002622</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.002399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.002405</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.002829</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.002832</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.002622</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.002179</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.006686</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0.002737</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.003468</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0029</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.002467</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.002736</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="57">
+                  <c:v>0.002227</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.003403</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.002458</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.002423</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.001988</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.002106</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.002501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.00275</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.002599</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.002683</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.002027</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.002134</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.003469</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.002603</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.001515</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.002225</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.002064</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.002258</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.003353</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.002015</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="74">
+                  <c:v>0.0018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.001827</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>0.002185</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.006295</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.009301</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.005214</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.004413</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.012194</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.002599</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.024723</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.002179</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.003387</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.001515</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.003469</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.002027</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="77">
                   <c:v>0.001555</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.002603</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.013833</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.002458</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.002305</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.002247</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="78">
+                  <c:v>0.001732</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.002778</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.00268</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.001344</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.001076</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.001387</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>0.001044</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0035</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.001076</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.010648</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.002683</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.006633</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.002174</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.001387</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.002773</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.001344</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.002227</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.002821</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.002622</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.001732</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.003403</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.006686</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="85">
                   <c:v>0.000737</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.011582</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.019987</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.00186</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.002225</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.002101</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.017669</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.002829</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.011202</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.002405</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.002777</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.005059</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.007449</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.011186</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.00239</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.012114</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.002622</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.001988</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.002501</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.001827</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.002106</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.002423</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.012217</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.002745</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.002084</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.00268</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.002134</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.002778</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.002225</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.010513</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.007389</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.002832</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.002278</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.00275</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.002399</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.009262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4362,8 +4356,8 @@
   <sheetPr/>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -4404,21 +4398,21 @@
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>140</v>
-      </c>
-      <c r="C2" s="4">
-        <v>165</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+      <c r="B2" s="3">
+        <v>805</v>
+      </c>
+      <c r="C2" s="3">
+        <v>761</v>
+      </c>
+      <c r="D2" s="4">
+        <v>763285</v>
       </c>
       <c r="E2" s="3">
-        <v>3469</v>
+        <v>19987</v>
       </c>
       <c r="F2">
         <f>E2/1000000</f>
-        <v>0.003469</v>
+        <v>0.019987</v>
       </c>
       <c r="H2">
         <v>0.084048</v>
@@ -4426,23 +4420,23 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>124</v>
-      </c>
-      <c r="C3" s="4">
-        <v>131</v>
-      </c>
-      <c r="D3" s="6">
-        <v>905034</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>679</v>
+      </c>
+      <c r="C3" s="3">
+        <v>687</v>
+      </c>
+      <c r="D3" s="4">
+        <v>72782</v>
       </c>
       <c r="E3" s="3">
-        <v>1800</v>
+        <v>17669</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F34" si="0">E3/1000000</f>
-        <v>0.0018</v>
+        <f>E3/1000000</f>
+        <v>0.017669</v>
       </c>
       <c r="H3">
         <v>0.010273</v>
@@ -4450,23 +4444,23 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>559</v>
-      </c>
-      <c r="C4" s="4">
-        <v>564</v>
-      </c>
-      <c r="D4" s="6">
-        <v>135391</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>594</v>
+      </c>
+      <c r="C4" s="3">
+        <v>501</v>
+      </c>
+      <c r="D4" s="4">
+        <v>713091</v>
       </c>
       <c r="E4" s="3">
-        <v>26148</v>
+        <v>13833</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.026148</v>
+        <f>E4/1000000</f>
+        <v>0.013833</v>
       </c>
       <c r="H4">
         <v>0.151645</v>
@@ -4474,22 +4468,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>572</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>574</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>135266</v>
       </c>
       <c r="E5" s="3">
         <v>33881</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>E5/1000000</f>
         <v>0.033881</v>
       </c>
       <c r="H5">
@@ -4498,23 +4492,23 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>217</v>
-      </c>
-      <c r="C6" s="4">
-        <v>207</v>
-      </c>
-      <c r="D6" s="6">
-        <v>957038</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>565</v>
+      </c>
+      <c r="C6" s="3">
+        <v>553</v>
+      </c>
+      <c r="D6" s="4">
+        <v>715643</v>
       </c>
       <c r="E6" s="3">
-        <v>2667</v>
+        <v>10648</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.002667</v>
+        <f>E6/1000000</f>
+        <v>0.010648</v>
       </c>
       <c r="H6">
         <v>0.014117</v>
@@ -4522,23 +4516,23 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
-        <v>196</v>
-      </c>
-      <c r="C7" s="4">
-        <v>176</v>
-      </c>
-      <c r="D7" s="6">
-        <v>758547</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>559</v>
+      </c>
+      <c r="C7" s="3">
+        <v>564</v>
+      </c>
+      <c r="D7" s="4">
+        <v>135391</v>
       </c>
       <c r="E7" s="3">
-        <v>3145</v>
+        <v>26148</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.003145</v>
+        <f>E7/1000000</f>
+        <v>0.026148</v>
       </c>
       <c r="H7">
         <v>0.015954</v>
@@ -4546,23 +4540,23 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>159</v>
-      </c>
-      <c r="C8" s="4">
-        <v>185</v>
-      </c>
-      <c r="D8" s="6">
-        <v>729684</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>528</v>
+      </c>
+      <c r="C8" s="3">
+        <v>519</v>
+      </c>
+      <c r="D8" s="4">
+        <v>947916</v>
       </c>
       <c r="E8" s="3">
-        <v>2737</v>
+        <v>12194</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.002737</v>
+        <f>E8/1000000</f>
+        <v>0.012194</v>
       </c>
       <c r="H8">
         <v>0.015993</v>
@@ -4570,23 +4564,23 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>179</v>
-      </c>
-      <c r="C9" s="4">
-        <v>153</v>
-      </c>
-      <c r="D9" s="6">
-        <v>137681</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>500</v>
+      </c>
+      <c r="C9" s="3">
+        <v>496</v>
+      </c>
+      <c r="D9" s="4">
+        <v>700898</v>
       </c>
       <c r="E9" s="3">
-        <v>3468</v>
+        <v>11582</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.003468</v>
+        <f>E9/1000000</f>
+        <v>0.011582</v>
       </c>
       <c r="H9">
         <v>0.017232</v>
@@ -4594,23 +4588,23 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
-        <v>174</v>
-      </c>
-      <c r="C10" s="4">
-        <v>265</v>
-      </c>
-      <c r="D10" s="6">
-        <v>471802</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>458</v>
+      </c>
+      <c r="C10" s="3">
+        <v>394</v>
+      </c>
+      <c r="D10" s="4">
+        <v>421486</v>
       </c>
       <c r="E10" s="3">
-        <v>2900</v>
+        <v>11186</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.0029</v>
+        <f>E10/1000000</f>
+        <v>0.011186</v>
       </c>
       <c r="H10">
         <v>0.017592</v>
@@ -4618,23 +4612,23 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
-        <v>192</v>
-      </c>
-      <c r="C11" s="4">
-        <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>654036</v>
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>455</v>
+      </c>
+      <c r="C11" s="3">
+        <v>372</v>
+      </c>
+      <c r="D11" s="4">
+        <v>227503</v>
       </c>
       <c r="E11" s="3">
-        <v>2467</v>
+        <v>12217</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.002467</v>
+        <f>E11/1000000</f>
+        <v>0.012217</v>
       </c>
       <c r="H11">
         <v>0.016216</v>
@@ -4642,23 +4636,23 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
-        <v>206</v>
-      </c>
-      <c r="C12" s="4">
-        <v>165</v>
-      </c>
-      <c r="D12" s="6">
-        <v>66314</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>451</v>
+      </c>
+      <c r="C12" s="3">
+        <v>538</v>
+      </c>
+      <c r="D12" s="4">
+        <v>922615</v>
       </c>
       <c r="E12" s="3">
-        <v>2736</v>
+        <v>24723</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.002736</v>
+        <f>E12/1000000</f>
+        <v>0.024723</v>
       </c>
       <c r="H12">
         <v>0.014116</v>
@@ -4666,23 +4660,23 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
-        <v>126</v>
-      </c>
-      <c r="C13" s="4">
-        <v>159</v>
-      </c>
-      <c r="D13" s="6">
-        <v>907509</v>
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>423</v>
+      </c>
+      <c r="C13" s="3">
+        <v>472</v>
+      </c>
+      <c r="D13" s="4">
+        <v>484574</v>
       </c>
       <c r="E13" s="3">
-        <v>2064</v>
+        <v>10513</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.002064</v>
+        <f>E13/1000000</f>
+        <v>0.010513</v>
       </c>
       <c r="H13">
         <v>0.012225</v>
@@ -4690,23 +4684,23 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>192</v>
-      </c>
-      <c r="C14" s="4">
-        <v>203</v>
-      </c>
-      <c r="D14" s="6">
-        <v>554706</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>414</v>
+      </c>
+      <c r="C14" s="3">
+        <v>387</v>
+      </c>
+      <c r="D14" s="4">
+        <v>185689</v>
       </c>
       <c r="E14" s="3">
-        <v>2258</v>
+        <v>12114</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.002258</v>
+        <f>E14/1000000</f>
+        <v>0.012114</v>
       </c>
       <c r="H14">
         <v>0.015056</v>
@@ -4714,23 +4708,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
-        <v>201</v>
-      </c>
-      <c r="C15" s="4">
-        <v>189</v>
-      </c>
-      <c r="D15" s="6">
-        <v>72962</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>408</v>
+      </c>
+      <c r="C15" s="3">
+        <v>401</v>
+      </c>
+      <c r="D15" s="4">
+        <v>761394</v>
       </c>
       <c r="E15" s="3">
-        <v>3353</v>
+        <v>9262</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.003353</v>
+        <f>E15/1000000</f>
+        <v>0.009262</v>
       </c>
       <c r="H15">
         <v>0.01537</v>
@@ -4738,23 +4732,23 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
-        <v>188</v>
-      </c>
-      <c r="C16" s="4">
-        <v>204</v>
-      </c>
-      <c r="D16" s="6">
-        <v>100982</v>
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>339</v>
+      </c>
+      <c r="C16" s="3">
+        <v>289</v>
+      </c>
+      <c r="D16" s="4">
+        <v>909804</v>
       </c>
       <c r="E16" s="3">
-        <v>2015</v>
+        <v>9301</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.002015</v>
+        <f>E16/1000000</f>
+        <v>0.009301</v>
       </c>
       <c r="H16">
         <v>0.014695</v>
@@ -4762,23 +4756,23 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
-        <v>117</v>
-      </c>
-      <c r="C17" s="4">
-        <v>138</v>
-      </c>
-      <c r="D17" s="6">
-        <v>110061</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>327</v>
+      </c>
+      <c r="C17" s="3">
+        <v>412</v>
+      </c>
+      <c r="D17" s="4">
+        <v>86392</v>
       </c>
       <c r="E17" s="3">
-        <v>2185</v>
+        <v>11202</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.002185</v>
+        <f>E17/1000000</f>
+        <v>0.011202</v>
       </c>
       <c r="H17">
         <v>0.010185</v>
@@ -4786,23 +4780,23 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4">
-        <v>208</v>
-      </c>
-      <c r="C18" s="4">
-        <v>201</v>
-      </c>
-      <c r="D18" s="6">
-        <v>101171</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>308</v>
+      </c>
+      <c r="C18" s="3">
+        <v>262</v>
+      </c>
+      <c r="D18" s="4">
+        <v>307098</v>
       </c>
       <c r="E18" s="3">
-        <v>6295</v>
+        <v>7449</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.006295</v>
+        <f>E18/1000000</f>
+        <v>0.007449</v>
       </c>
       <c r="H18">
         <v>0.033803</v>
@@ -4810,23 +4804,23 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4">
-        <v>339</v>
-      </c>
-      <c r="C19" s="4">
-        <v>289</v>
-      </c>
-      <c r="D19" s="6">
-        <v>909804</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>306</v>
+      </c>
+      <c r="C19" s="3">
+        <v>323</v>
+      </c>
+      <c r="D19" s="4">
+        <v>617479</v>
       </c>
       <c r="E19" s="3">
-        <v>9301</v>
+        <v>7389</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>0.009301</v>
+        <f>E19/1000000</f>
+        <v>0.007389</v>
       </c>
       <c r="H19">
         <v>0.049165</v>
@@ -4834,23 +4828,23 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4">
-        <v>226</v>
-      </c>
-      <c r="C20" s="4">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>299</v>
+      </c>
+      <c r="C20" s="3">
         <v>240</v>
       </c>
-      <c r="D20" s="6">
-        <v>166624</v>
+      <c r="D20" s="4">
+        <v>639523</v>
       </c>
       <c r="E20" s="3">
-        <v>5214</v>
+        <v>5059</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.005214</v>
+        <f>E20/1000000</f>
+        <v>0.005059</v>
       </c>
       <c r="H20">
         <v>0.027265</v>
@@ -4858,23 +4852,23 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4">
-        <v>192</v>
-      </c>
-      <c r="C21" s="4">
-        <v>189</v>
-      </c>
-      <c r="D21" s="6">
-        <v>183666</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>242</v>
+      </c>
+      <c r="C21" s="3">
+        <v>282</v>
+      </c>
+      <c r="D21" s="4">
+        <v>106303</v>
       </c>
       <c r="E21" s="3">
-        <v>4413</v>
+        <v>3469</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0.004413</v>
+        <f>E21/1000000</f>
+        <v>0.003469</v>
       </c>
       <c r="H21">
         <v>0.020878</v>
@@ -4882,23 +4876,23 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4">
-        <v>528</v>
-      </c>
-      <c r="C22" s="4">
-        <v>519</v>
-      </c>
-      <c r="D22" s="6">
-        <v>947916</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>236</v>
+      </c>
+      <c r="C22" s="3">
+        <v>267</v>
+      </c>
+      <c r="D22" s="4">
+        <v>725831</v>
       </c>
       <c r="E22" s="3">
-        <v>12194</v>
+        <v>6633</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0.012194</v>
+        <f>E22/1000000</f>
+        <v>0.006633</v>
       </c>
       <c r="H22">
         <v>0.083645</v>
@@ -4906,23 +4900,23 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4">
-        <v>158</v>
-      </c>
-      <c r="D23" s="6">
-        <v>641592</v>
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>226</v>
+      </c>
+      <c r="C23" s="3">
+        <v>240</v>
+      </c>
+      <c r="D23" s="4">
+        <v>166624</v>
       </c>
       <c r="E23" s="3">
-        <v>2599</v>
+        <v>5214</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0.002599</v>
+        <f>E23/1000000</f>
+        <v>0.005214</v>
       </c>
       <c r="H23">
         <v>0.013348</v>
@@ -4930,23 +4924,23 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
-        <v>451</v>
-      </c>
-      <c r="C24" s="4">
-        <v>538</v>
-      </c>
-      <c r="D24" s="6">
-        <v>922615</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>220</v>
+      </c>
+      <c r="C24" s="3">
+        <v>192</v>
+      </c>
+      <c r="D24" s="4">
+        <v>186084</v>
       </c>
       <c r="E24" s="3">
-        <v>24723</v>
+        <v>2773</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0.024723</v>
+        <f>E24/1000000</f>
+        <v>0.002773</v>
       </c>
       <c r="H24">
         <v>0.091486</v>
@@ -4954,23 +4948,23 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4">
-        <v>164</v>
-      </c>
-      <c r="C25" s="4">
-        <v>173</v>
-      </c>
-      <c r="D25" s="6">
-        <v>928778</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>219</v>
+      </c>
+      <c r="C25" s="3">
+        <v>200</v>
+      </c>
+      <c r="D25" s="4">
+        <v>103443</v>
       </c>
       <c r="E25" s="3">
-        <v>2179</v>
+        <v>2305</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.002179</v>
+        <f>E25/1000000</f>
+        <v>0.002305</v>
       </c>
       <c r="H25">
         <v>0.014899</v>
@@ -4978,23 +4972,23 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4">
-        <v>176</v>
-      </c>
-      <c r="C26" s="4">
-        <v>171</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>218</v>
+      </c>
+      <c r="C26" s="3">
+        <v>172</v>
+      </c>
+      <c r="D26" s="4">
+        <v>635601</v>
       </c>
       <c r="E26" s="3">
-        <v>3387</v>
+        <v>2225</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0.003387</v>
+        <f>E26/1000000</f>
+        <v>0.002225</v>
       </c>
       <c r="H26">
         <v>0.019763</v>
@@ -5002,23 +4996,23 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4">
-        <v>131</v>
-      </c>
-      <c r="C27" s="4">
-        <v>121</v>
-      </c>
-      <c r="D27" s="6">
-        <v>668631</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>217</v>
+      </c>
+      <c r="C27" s="3">
+        <v>207</v>
+      </c>
+      <c r="D27" s="4">
+        <v>957038</v>
       </c>
       <c r="E27" s="3">
-        <v>1515</v>
+        <v>2667</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0.001515</v>
+        <f>E27/1000000</f>
+        <v>0.002667</v>
       </c>
       <c r="H27">
         <v>0.009895</v>
@@ -5026,23 +5020,23 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4">
-        <v>242</v>
-      </c>
-      <c r="C28" s="4">
-        <v>282</v>
-      </c>
-      <c r="D28" s="6">
-        <v>106303</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>208</v>
+      </c>
+      <c r="C28" s="3">
+        <v>201</v>
+      </c>
+      <c r="D28" s="4">
+        <v>101171</v>
       </c>
       <c r="E28" s="3">
-        <v>3469</v>
+        <v>6295</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0.003469</v>
+        <f>E28/1000000</f>
+        <v>0.006295</v>
       </c>
       <c r="H28">
         <v>0.021871</v>
@@ -5050,23 +5044,23 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4">
-        <v>144</v>
-      </c>
-      <c r="C29" s="4">
-        <v>154</v>
-      </c>
-      <c r="D29" s="6">
-        <v>180546</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>206</v>
+      </c>
+      <c r="C29" s="3">
+        <v>165</v>
+      </c>
+      <c r="D29" s="4">
+        <v>66314</v>
       </c>
       <c r="E29" s="3">
-        <v>2027</v>
+        <v>2736</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0.002027</v>
+        <f>E29/1000000</f>
+        <v>0.002736</v>
       </c>
       <c r="H29">
         <v>0.01446</v>
@@ -5074,23 +5068,23 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4">
-        <v>116</v>
-      </c>
-      <c r="C30" s="4">
-        <v>123</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>202</v>
+      </c>
+      <c r="C30" s="3">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4">
+        <v>708067</v>
       </c>
       <c r="E30" s="3">
-        <v>1555</v>
+        <v>2101</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0.001555</v>
+        <f>E30/1000000</f>
+        <v>0.002101</v>
       </c>
       <c r="H30">
         <v>0.009783</v>
@@ -5098,23 +5092,23 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="4">
-        <v>137</v>
-      </c>
-      <c r="C31" s="4">
-        <v>130</v>
-      </c>
-      <c r="D31" s="6">
-        <v>143426</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>201</v>
+      </c>
+      <c r="C31" s="3">
+        <v>189</v>
+      </c>
+      <c r="D31" s="4">
+        <v>72962</v>
       </c>
       <c r="E31" s="3">
-        <v>2603</v>
+        <v>3353</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>0.002603</v>
+        <f>E31/1000000</f>
+        <v>0.003353</v>
       </c>
       <c r="H31">
         <v>0.014526</v>
@@ -5122,23 +5116,23 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="4">
-        <v>594</v>
-      </c>
-      <c r="C32" s="4">
-        <v>501</v>
-      </c>
-      <c r="D32" s="6">
-        <v>713091</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>199</v>
+      </c>
+      <c r="C32" s="3">
+        <v>154</v>
+      </c>
+      <c r="D32" s="4">
+        <v>89964</v>
       </c>
       <c r="E32" s="3">
-        <v>13833</v>
+        <v>1860</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0.013833</v>
+        <f>E32/1000000</f>
+        <v>0.00186</v>
       </c>
       <c r="H32">
         <v>0.088956</v>
@@ -5146,23 +5140,23 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="4">
-        <v>153</v>
-      </c>
-      <c r="C33" s="4">
-        <v>144</v>
-      </c>
-      <c r="D33" s="6">
-        <v>182352</v>
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>199</v>
+      </c>
+      <c r="C33" s="3">
+        <v>152</v>
+      </c>
+      <c r="D33" s="4">
+        <v>984563</v>
       </c>
       <c r="E33" s="3">
-        <v>2458</v>
+        <v>2777</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>0.002458</v>
+        <f>E33/1000000</f>
+        <v>0.002777</v>
       </c>
       <c r="H33">
         <v>0.014387</v>
@@ -5170,23 +5164,23 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4">
-        <v>219</v>
-      </c>
-      <c r="C34" s="4">
-        <v>200</v>
-      </c>
-      <c r="D34" s="6">
-        <v>103443</v>
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>196</v>
+      </c>
+      <c r="C34" s="3">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4">
+        <v>758547</v>
       </c>
       <c r="E34" s="3">
-        <v>2305</v>
+        <v>3145</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>0.002305</v>
+        <f>E34/1000000</f>
+        <v>0.003145</v>
       </c>
       <c r="H34">
         <v>0.014</v>
@@ -5194,23 +5188,23 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="4">
-        <v>176</v>
-      </c>
-      <c r="C35" s="4">
-        <v>130</v>
-      </c>
-      <c r="D35" s="6">
-        <v>159832</v>
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>192</v>
+      </c>
+      <c r="C35" s="3">
+        <v>200</v>
+      </c>
+      <c r="D35" s="4">
+        <v>654036</v>
       </c>
       <c r="E35" s="3">
-        <v>2247</v>
+        <v>2467</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F66" si="1">E35/1000000</f>
-        <v>0.002247</v>
+        <f>E35/1000000</f>
+        <v>0.002467</v>
       </c>
       <c r="H35">
         <v>0.007971</v>
@@ -5218,23 +5212,23 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="4">
-        <v>48</v>
-      </c>
-      <c r="C36" s="4">
-        <v>61</v>
-      </c>
-      <c r="D36" s="6">
-        <v>683789</v>
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>192</v>
+      </c>
+      <c r="C36" s="3">
+        <v>203</v>
+      </c>
+      <c r="D36" s="4">
+        <v>554706</v>
       </c>
       <c r="E36" s="3">
-        <v>1044</v>
+        <v>2258</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0.001044</v>
+        <f>E36/1000000</f>
+        <v>0.002258</v>
       </c>
       <c r="H36">
         <v>0.005812</v>
@@ -5242,23 +5236,23 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4">
-        <v>187</v>
-      </c>
-      <c r="C37" s="4">
-        <v>191</v>
-      </c>
-      <c r="D37" s="6">
-        <v>182373</v>
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>192</v>
+      </c>
+      <c r="C37" s="3">
+        <v>189</v>
+      </c>
+      <c r="D37" s="4">
+        <v>183666</v>
       </c>
       <c r="E37" s="3">
-        <v>3500</v>
+        <v>4413</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>0.0035</v>
+        <f>E37/1000000</f>
+        <v>0.004413</v>
       </c>
       <c r="H37">
         <v>0.019791</v>
@@ -5266,23 +5260,23 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="4">
-        <v>58</v>
-      </c>
-      <c r="C38" s="4">
-        <v>41</v>
-      </c>
-      <c r="D38" s="6">
-        <v>684542</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>192</v>
+      </c>
+      <c r="C38" s="3">
+        <v>173</v>
+      </c>
+      <c r="D38" s="4">
+        <v>180099</v>
       </c>
       <c r="E38" s="3">
-        <v>1076</v>
+        <v>2084</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>0.001076</v>
+        <f>E38/1000000</f>
+        <v>0.002084</v>
       </c>
       <c r="H38">
         <v>0.005792</v>
@@ -5290,23 +5284,23 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="4">
-        <v>565</v>
-      </c>
-      <c r="C39" s="4">
-        <v>553</v>
-      </c>
-      <c r="D39" s="6">
-        <v>715643</v>
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>188</v>
+      </c>
+      <c r="C39" s="3">
+        <v>204</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100982</v>
       </c>
       <c r="E39" s="3">
-        <v>10648</v>
+        <v>2015</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>0.010648</v>
+        <f>E39/1000000</f>
+        <v>0.002015</v>
       </c>
       <c r="H39">
         <v>0.069815</v>
@@ -5314,23 +5308,23 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="4">
-        <v>145</v>
-      </c>
-      <c r="C40" s="4">
-        <v>111</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>188</v>
+      </c>
+      <c r="C40" s="3">
+        <v>157</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3">
-        <v>2683</v>
+        <v>2174</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>0.002683</v>
+        <f>E40/1000000</f>
+        <v>0.002174</v>
       </c>
       <c r="H40">
         <v>0.0151</v>
@@ -5338,23 +5332,23 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4">
-        <v>236</v>
-      </c>
-      <c r="C41" s="4">
-        <v>267</v>
-      </c>
-      <c r="D41" s="6">
-        <v>725831</v>
+        <v>47</v>
+      </c>
+      <c r="B41" s="3">
+        <v>187</v>
+      </c>
+      <c r="C41" s="3">
+        <v>191</v>
+      </c>
+      <c r="D41" s="4">
+        <v>182373</v>
       </c>
       <c r="E41" s="3">
-        <v>6633</v>
+        <v>3500</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0.006633</v>
+        <f>E41/1000000</f>
+        <v>0.0035</v>
       </c>
       <c r="H41">
         <v>0.018666</v>
@@ -5362,23 +5356,23 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4">
-        <v>188</v>
-      </c>
-      <c r="C42" s="4">
-        <v>157</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="B42" s="3">
+        <v>187</v>
+      </c>
+      <c r="C42" s="3">
+        <v>169</v>
+      </c>
+      <c r="D42" s="4">
+        <v>106562</v>
       </c>
       <c r="E42" s="3">
-        <v>2174</v>
+        <v>2821</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>0.002174</v>
+        <f>E42/1000000</f>
+        <v>0.002821</v>
       </c>
       <c r="H42">
         <v>0.013383</v>
@@ -5386,23 +5380,23 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="4">
-        <v>56</v>
-      </c>
-      <c r="C43" s="4">
-        <v>55</v>
-      </c>
-      <c r="D43" s="6">
-        <v>825704</v>
+        <v>49</v>
+      </c>
+      <c r="B43" s="3">
+        <v>183</v>
+      </c>
+      <c r="C43" s="3">
+        <v>194</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E43" s="3">
-        <v>1387</v>
+        <v>2745</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>0.001387</v>
+        <f>E43/1000000</f>
+        <v>0.002745</v>
       </c>
       <c r="H43">
         <v>0.006106</v>
@@ -5410,23 +5404,23 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="4">
-        <v>220</v>
-      </c>
-      <c r="C44" s="4">
-        <v>192</v>
-      </c>
-      <c r="D44" s="6">
-        <v>186084</v>
+        <v>51</v>
+      </c>
+      <c r="B44" s="3">
+        <v>182</v>
+      </c>
+      <c r="C44" s="3">
+        <v>184</v>
+      </c>
+      <c r="D44" s="4">
+        <v>736389</v>
       </c>
       <c r="E44" s="3">
-        <v>2773</v>
+        <v>2278</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>0.002773</v>
+        <f>E44/1000000</f>
+        <v>0.002278</v>
       </c>
       <c r="H44">
         <v>0.015766</v>
@@ -5434,23 +5428,23 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="4">
-        <v>65</v>
-      </c>
-      <c r="C45" s="4">
-        <v>44</v>
-      </c>
-      <c r="D45" s="6">
-        <v>458201</v>
+        <v>52</v>
+      </c>
+      <c r="B45" s="3">
+        <v>179</v>
+      </c>
+      <c r="C45" s="3">
+        <v>153</v>
+      </c>
+      <c r="D45" s="4">
+        <v>137681</v>
       </c>
       <c r="E45" s="3">
-        <v>1344</v>
+        <v>3468</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>0.001344</v>
+        <f>E45/1000000</f>
+        <v>0.003468</v>
       </c>
       <c r="H45">
         <v>0.005631</v>
@@ -5458,23 +5452,23 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="4">
-        <v>158</v>
-      </c>
-      <c r="C46" s="4">
-        <v>198</v>
-      </c>
-      <c r="D46" s="6">
-        <v>123861</v>
+        <v>53</v>
+      </c>
+      <c r="B46" s="3">
+        <v>176</v>
+      </c>
+      <c r="C46" s="3">
+        <v>171</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E46" s="3">
-        <v>2227</v>
+        <v>3387</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>0.002227</v>
+        <f>E46/1000000</f>
+        <v>0.003387</v>
       </c>
       <c r="H46">
         <v>0.015165</v>
@@ -5482,23 +5476,23 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="4">
-        <v>187</v>
-      </c>
-      <c r="C47" s="4">
-        <v>169</v>
-      </c>
-      <c r="D47" s="6">
-        <v>106562</v>
+        <v>55</v>
+      </c>
+      <c r="B47" s="3">
+        <v>176</v>
+      </c>
+      <c r="C47" s="3">
+        <v>130</v>
+      </c>
+      <c r="D47" s="4">
+        <v>159832</v>
       </c>
       <c r="E47" s="3">
-        <v>2821</v>
+        <v>2247</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>0.002821</v>
+        <f>E47/1000000</f>
+        <v>0.002247</v>
       </c>
       <c r="H47">
         <v>0.007569</v>
@@ -5506,23 +5500,23 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="4">
-        <v>165</v>
-      </c>
-      <c r="C48" s="4">
-        <v>178</v>
-      </c>
-      <c r="D48" s="6">
-        <v>710279</v>
+        <v>56</v>
+      </c>
+      <c r="B48" s="3">
+        <v>175</v>
+      </c>
+      <c r="C48" s="3">
+        <v>212</v>
+      </c>
+      <c r="D48" s="4">
+        <v>164485</v>
       </c>
       <c r="E48" s="3">
-        <v>2622</v>
+        <v>2390</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>0.002622</v>
+        <f>E48/1000000</f>
+        <v>0.00239</v>
       </c>
       <c r="H48">
         <v>0.013446</v>
@@ -5530,23 +5524,23 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4">
-        <v>111</v>
-      </c>
-      <c r="C49" s="4">
-        <v>106</v>
-      </c>
-      <c r="D49" s="6">
-        <v>460223</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="3">
+        <v>174</v>
+      </c>
+      <c r="C49" s="3">
+        <v>265</v>
+      </c>
+      <c r="D49" s="4">
+        <v>471802</v>
       </c>
       <c r="E49" s="3">
-        <v>1732</v>
+        <v>2900</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>0.001732</v>
+        <f>E49/1000000</f>
+        <v>0.0029</v>
       </c>
       <c r="H49">
         <v>0.009238</v>
@@ -5554,23 +5548,23 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="4">
-        <v>156</v>
-      </c>
-      <c r="C50" s="4">
-        <v>129</v>
-      </c>
-      <c r="D50" s="6">
-        <v>115178</v>
+        <v>58</v>
+      </c>
+      <c r="B50" s="3">
+        <v>172</v>
+      </c>
+      <c r="C50" s="3">
+        <v>192</v>
+      </c>
+      <c r="D50" s="4">
+        <v>158829</v>
       </c>
       <c r="E50" s="3">
-        <v>3403</v>
+        <v>2622</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>0.003403</v>
+        <f>E50/1000000</f>
+        <v>0.002622</v>
       </c>
       <c r="H50">
         <v>0.015107</v>
@@ -5578,23 +5572,23 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="4">
-        <v>160</v>
-      </c>
-      <c r="C51" s="4">
-        <v>195</v>
-      </c>
-      <c r="D51" s="6">
-        <v>135896</v>
+        <v>59</v>
+      </c>
+      <c r="B51" s="3">
+        <v>171</v>
+      </c>
+      <c r="C51" s="3">
+        <v>169</v>
+      </c>
+      <c r="D51" s="4">
+        <v>801645</v>
       </c>
       <c r="E51" s="3">
-        <v>6686</v>
+        <v>2399</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>0.006686</v>
+        <f>E51/1000000</f>
+        <v>0.002399</v>
       </c>
       <c r="H51">
         <v>0.036408</v>
@@ -5602,23 +5596,23 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="3">
+        <v>167</v>
+      </c>
+      <c r="C52" s="3">
+        <v>153</v>
       </c>
       <c r="D52" s="4">
-        <v>0</v>
+        <v>359749</v>
       </c>
       <c r="E52" s="3">
-        <v>737</v>
+        <v>2405</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>0.000737</v>
+        <f>E52/1000000</f>
+        <v>0.002405</v>
       </c>
       <c r="H52">
         <v>0.002848</v>
@@ -5626,23 +5620,23 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="4">
-        <v>500</v>
-      </c>
-      <c r="C53" s="4">
-        <v>496</v>
-      </c>
-      <c r="D53" s="6">
-        <v>700898</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="3">
+        <v>166</v>
+      </c>
+      <c r="C53" s="3">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4">
+        <v>914047</v>
       </c>
       <c r="E53" s="3">
-        <v>11582</v>
+        <v>2829</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>0.011582</v>
+        <f>E53/1000000</f>
+        <v>0.002829</v>
       </c>
       <c r="H53">
         <v>0.038388</v>
@@ -5650,23 +5644,23 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="4">
-        <v>805</v>
-      </c>
-      <c r="C54" s="4">
-        <v>761</v>
-      </c>
-      <c r="D54" s="6">
-        <v>763285</v>
+        <v>62</v>
+      </c>
+      <c r="B54" s="3">
+        <v>166</v>
+      </c>
+      <c r="C54" s="3">
+        <v>147</v>
+      </c>
+      <c r="D54" s="4">
+        <v>889166</v>
       </c>
       <c r="E54" s="3">
-        <v>19987</v>
+        <v>2832</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>0.019987</v>
+        <f>E54/1000000</f>
+        <v>0.002832</v>
       </c>
       <c r="H54">
         <v>0.146933</v>
@@ -5674,23 +5668,23 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="4">
-        <v>199</v>
-      </c>
-      <c r="C55" s="4">
-        <v>154</v>
-      </c>
-      <c r="D55" s="6">
-        <v>89964</v>
+        <v>63</v>
+      </c>
+      <c r="B55" s="3">
+        <v>165</v>
+      </c>
+      <c r="C55" s="3">
+        <v>178</v>
+      </c>
+      <c r="D55" s="4">
+        <v>710279</v>
       </c>
       <c r="E55" s="3">
-        <v>1860</v>
+        <v>2622</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>0.00186</v>
+        <f>E55/1000000</f>
+        <v>0.002622</v>
       </c>
       <c r="H55">
         <v>0.013589</v>
@@ -5698,23 +5692,23 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="4">
-        <v>130</v>
-      </c>
-      <c r="C56" s="4">
-        <v>183</v>
-      </c>
-      <c r="D56" s="6">
-        <v>919513</v>
+        <v>64</v>
+      </c>
+      <c r="B56" s="3">
+        <v>164</v>
+      </c>
+      <c r="C56" s="3">
+        <v>173</v>
+      </c>
+      <c r="D56" s="4">
+        <v>928778</v>
       </c>
       <c r="E56" s="3">
-        <v>2225</v>
+        <v>2179</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>0.002225</v>
+        <f>E56/1000000</f>
+        <v>0.002179</v>
       </c>
       <c r="H56">
         <v>0.013559</v>
@@ -5722,23 +5716,23 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="4">
-        <v>202</v>
-      </c>
-      <c r="C57" s="4">
-        <v>125</v>
-      </c>
-      <c r="D57" s="6">
-        <v>708067</v>
+        <v>65</v>
+      </c>
+      <c r="B57" s="3">
+        <v>160</v>
+      </c>
+      <c r="C57" s="3">
+        <v>195</v>
+      </c>
+      <c r="D57" s="4">
+        <v>135896</v>
       </c>
       <c r="E57" s="3">
-        <v>2101</v>
+        <v>6686</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>0.002101</v>
+        <f>E57/1000000</f>
+        <v>0.006686</v>
       </c>
       <c r="H57">
         <v>0.014983</v>
@@ -5746,23 +5740,23 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="4">
-        <v>679</v>
-      </c>
-      <c r="C58" s="4">
-        <v>687</v>
-      </c>
-      <c r="D58" s="6">
-        <v>72782</v>
+        <v>66</v>
+      </c>
+      <c r="B58" s="3">
+        <v>159</v>
+      </c>
+      <c r="C58" s="3">
+        <v>185</v>
+      </c>
+      <c r="D58" s="4">
+        <v>729684</v>
       </c>
       <c r="E58" s="3">
-        <v>17669</v>
+        <v>2737</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>0.017669</v>
+        <f>E58/1000000</f>
+        <v>0.002737</v>
       </c>
       <c r="H58">
         <v>0.081338</v>
@@ -5770,23 +5764,23 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="4">
-        <v>166</v>
-      </c>
-      <c r="C59" s="4">
-        <v>157</v>
-      </c>
-      <c r="D59" s="6">
-        <v>914047</v>
+        <v>67</v>
+      </c>
+      <c r="B59" s="3">
+        <v>158</v>
+      </c>
+      <c r="C59" s="3">
+        <v>198</v>
+      </c>
+      <c r="D59" s="4">
+        <v>123861</v>
       </c>
       <c r="E59" s="3">
-        <v>2829</v>
+        <v>2227</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>0.002829</v>
+        <f>E59/1000000</f>
+        <v>0.002227</v>
       </c>
       <c r="H59">
         <v>0.014487</v>
@@ -5794,23 +5788,23 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="4">
-        <v>327</v>
-      </c>
-      <c r="C60" s="4">
-        <v>412</v>
-      </c>
-      <c r="D60" s="6">
-        <v>86392</v>
+        <v>68</v>
+      </c>
+      <c r="B60" s="3">
+        <v>156</v>
+      </c>
+      <c r="C60" s="3">
+        <v>129</v>
+      </c>
+      <c r="D60" s="4">
+        <v>115178</v>
       </c>
       <c r="E60" s="3">
-        <v>11202</v>
+        <v>3403</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>0.011202</v>
+        <f>E60/1000000</f>
+        <v>0.003403</v>
       </c>
       <c r="H60">
         <v>0.072286</v>
@@ -5818,23 +5812,23 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="4">
-        <v>167</v>
-      </c>
-      <c r="C61" s="4">
+        <v>69</v>
+      </c>
+      <c r="B61" s="3">
         <v>153</v>
       </c>
-      <c r="D61" s="6">
-        <v>359749</v>
+      <c r="C61" s="3">
+        <v>144</v>
+      </c>
+      <c r="D61" s="4">
+        <v>182352</v>
       </c>
       <c r="E61" s="3">
-        <v>2405</v>
+        <v>2458</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>0.002405</v>
+        <f>E61/1000000</f>
+        <v>0.002458</v>
       </c>
       <c r="H61">
         <v>0.015109</v>
@@ -5842,23 +5836,23 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="4">
-        <v>199</v>
-      </c>
-      <c r="C62" s="4">
-        <v>152</v>
-      </c>
-      <c r="D62" s="6">
-        <v>984563</v>
+        <v>70</v>
+      </c>
+      <c r="B62" s="3">
+        <v>153</v>
+      </c>
+      <c r="C62" s="3">
+        <v>145</v>
+      </c>
+      <c r="D62" s="4">
+        <v>151764</v>
       </c>
       <c r="E62" s="3">
-        <v>2777</v>
+        <v>2423</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>0.002777</v>
+        <f>E62/1000000</f>
+        <v>0.002423</v>
       </c>
       <c r="H62">
         <v>0.024474</v>
@@ -5866,23 +5860,23 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="4">
-        <v>299</v>
-      </c>
-      <c r="C63" s="4">
-        <v>240</v>
-      </c>
-      <c r="D63" s="6">
-        <v>639523</v>
+        <v>71</v>
+      </c>
+      <c r="B63" s="3">
+        <v>151</v>
+      </c>
+      <c r="C63" s="3">
+        <v>147</v>
+      </c>
+      <c r="D63" s="4">
+        <v>152779</v>
       </c>
       <c r="E63" s="3">
-        <v>5059</v>
+        <v>1988</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>0.005059</v>
+        <f>E63/1000000</f>
+        <v>0.001988</v>
       </c>
       <c r="H63">
         <v>0.025789</v>
@@ -5890,23 +5884,23 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="4">
-        <v>308</v>
-      </c>
-      <c r="C64" s="4">
-        <v>262</v>
-      </c>
-      <c r="D64" s="6">
-        <v>307098</v>
+        <v>72</v>
+      </c>
+      <c r="B64" s="3">
+        <v>150</v>
+      </c>
+      <c r="C64" s="3">
+        <v>148</v>
+      </c>
+      <c r="D64" s="4">
+        <v>152771</v>
       </c>
       <c r="E64" s="3">
-        <v>7449</v>
+        <v>2106</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>0.007449</v>
+        <f>E64/1000000</f>
+        <v>0.002106</v>
       </c>
       <c r="H64">
         <v>0.021277</v>
@@ -5914,23 +5908,23 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="4">
-        <v>458</v>
-      </c>
-      <c r="C65" s="4">
-        <v>394</v>
-      </c>
-      <c r="D65" s="6">
-        <v>421486</v>
+        <v>73</v>
+      </c>
+      <c r="B65" s="3">
+        <v>148</v>
+      </c>
+      <c r="C65" s="3">
+        <v>131</v>
+      </c>
+      <c r="D65" s="4">
+        <v>210305</v>
       </c>
       <c r="E65" s="3">
-        <v>11186</v>
+        <v>2501</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>0.011186</v>
+        <f>E65/1000000</f>
+        <v>0.002501</v>
       </c>
       <c r="H65">
         <v>0.076166</v>
@@ -5938,23 +5932,23 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="4">
-        <v>175</v>
-      </c>
-      <c r="C66" s="4">
-        <v>212</v>
-      </c>
-      <c r="D66" s="6">
-        <v>164485</v>
+        <v>74</v>
+      </c>
+      <c r="B66" s="3">
+        <v>146</v>
+      </c>
+      <c r="C66" s="3">
+        <v>163</v>
+      </c>
+      <c r="D66" s="4">
+        <v>832886</v>
       </c>
       <c r="E66" s="3">
-        <v>2390</v>
+        <v>2750</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>0.00239</v>
+        <f>E66/1000000</f>
+        <v>0.00275</v>
       </c>
       <c r="H66">
         <v>0.014579</v>
@@ -5962,23 +5956,23 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="4">
-        <v>414</v>
-      </c>
-      <c r="C67" s="4">
-        <v>387</v>
-      </c>
-      <c r="D67" s="6">
-        <v>185689</v>
+        <v>75</v>
+      </c>
+      <c r="B67" s="3">
+        <v>145</v>
+      </c>
+      <c r="C67" s="3">
+        <v>158</v>
+      </c>
+      <c r="D67" s="4">
+        <v>641592</v>
       </c>
       <c r="E67" s="3">
-        <v>12114</v>
+        <v>2599</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F87" si="2">E67/1000000</f>
-        <v>0.012114</v>
+        <f>E67/1000000</f>
+        <v>0.002599</v>
       </c>
       <c r="H67">
         <v>0.067297</v>
@@ -5986,23 +5980,23 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="4">
-        <v>172</v>
-      </c>
-      <c r="C68" s="4">
-        <v>192</v>
-      </c>
-      <c r="D68" s="6">
-        <v>158829</v>
+        <v>76</v>
+      </c>
+      <c r="B68" s="3">
+        <v>145</v>
+      </c>
+      <c r="C68" s="3">
+        <v>111</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E68" s="3">
-        <v>2622</v>
+        <v>2683</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
-        <v>0.002622</v>
+        <f>E68/1000000</f>
+        <v>0.002683</v>
       </c>
       <c r="H68">
         <v>0.015526</v>
@@ -6010,23 +6004,23 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="4">
-        <v>151</v>
-      </c>
-      <c r="C69" s="4">
-        <v>147</v>
-      </c>
-      <c r="D69" s="6">
-        <v>152779</v>
+        <v>78</v>
+      </c>
+      <c r="B69" s="3">
+        <v>144</v>
+      </c>
+      <c r="C69" s="3">
+        <v>154</v>
+      </c>
+      <c r="D69" s="4">
+        <v>180546</v>
       </c>
       <c r="E69" s="3">
-        <v>1988</v>
+        <v>2027</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
-        <v>0.001988</v>
+        <f>E69/1000000</f>
+        <v>0.002027</v>
       </c>
       <c r="H69">
         <v>0.013698</v>
@@ -6034,23 +6028,23 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="4">
-        <v>148</v>
-      </c>
-      <c r="C70" s="4">
-        <v>131</v>
-      </c>
-      <c r="D70" s="6">
-        <v>210305</v>
+        <v>79</v>
+      </c>
+      <c r="B70" s="3">
+        <v>141</v>
+      </c>
+      <c r="C70" s="3">
+        <v>162</v>
+      </c>
+      <c r="D70" s="4">
+        <v>154378</v>
       </c>
       <c r="E70" s="3">
-        <v>2501</v>
+        <v>2134</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
-        <v>0.002501</v>
+        <f>E70/1000000</f>
+        <v>0.002134</v>
       </c>
       <c r="H70">
         <v>0.015186</v>
@@ -6058,23 +6052,23 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3">
+        <v>140</v>
+      </c>
+      <c r="C71" s="3">
+        <v>165</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="4">
-        <v>123</v>
-      </c>
-      <c r="C71" s="4">
-        <v>105</v>
-      </c>
-      <c r="D71" s="6">
-        <v>201678</v>
-      </c>
       <c r="E71" s="3">
-        <v>1827</v>
+        <v>3469</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
-        <v>0.001827</v>
+        <f>E71/1000000</f>
+        <v>0.003469</v>
       </c>
       <c r="H71">
         <v>0.012821</v>
@@ -6084,21 +6078,21 @@
       <c r="A72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="4">
-        <v>150</v>
-      </c>
-      <c r="C72" s="4">
-        <v>148</v>
-      </c>
-      <c r="D72" s="6">
-        <v>152771</v>
+      <c r="B72" s="3">
+        <v>137</v>
+      </c>
+      <c r="C72" s="3">
+        <v>130</v>
+      </c>
+      <c r="D72" s="4">
+        <v>143426</v>
       </c>
       <c r="E72" s="3">
-        <v>2106</v>
+        <v>2603</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
-        <v>0.002106</v>
+        <f>E72/1000000</f>
+        <v>0.002603</v>
       </c>
       <c r="H72">
         <v>0.013509</v>
@@ -6108,21 +6102,21 @@
       <c r="A73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="4">
-        <v>153</v>
-      </c>
-      <c r="C73" s="4">
-        <v>145</v>
-      </c>
-      <c r="D73" s="6">
-        <v>151764</v>
+      <c r="B73" s="3">
+        <v>131</v>
+      </c>
+      <c r="C73" s="3">
+        <v>121</v>
+      </c>
+      <c r="D73" s="4">
+        <v>668631</v>
       </c>
       <c r="E73" s="3">
-        <v>2423</v>
+        <v>1515</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
-        <v>0.002423</v>
+        <f>E73/1000000</f>
+        <v>0.001515</v>
       </c>
       <c r="H73">
         <v>0.014105</v>
@@ -6132,21 +6126,21 @@
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="4">
-        <v>455</v>
-      </c>
-      <c r="C74" s="4">
-        <v>372</v>
-      </c>
-      <c r="D74" s="6">
-        <v>227503</v>
+      <c r="B74" s="3">
+        <v>130</v>
+      </c>
+      <c r="C74" s="3">
+        <v>183</v>
+      </c>
+      <c r="D74" s="4">
+        <v>919513</v>
       </c>
       <c r="E74" s="3">
-        <v>12217</v>
+        <v>2225</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
-        <v>0.012217</v>
+        <f>E74/1000000</f>
+        <v>0.002225</v>
       </c>
       <c r="H74">
         <v>0.049134</v>
@@ -6156,21 +6150,21 @@
       <c r="A75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="4">
-        <v>183</v>
-      </c>
-      <c r="C75" s="4">
-        <v>194</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>86</v>
+      <c r="B75" s="3">
+        <v>126</v>
+      </c>
+      <c r="C75" s="3">
+        <v>159</v>
+      </c>
+      <c r="D75" s="4">
+        <v>907509</v>
       </c>
       <c r="E75" s="3">
-        <v>2745</v>
+        <v>2064</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
-        <v>0.002745</v>
+        <f>E75/1000000</f>
+        <v>0.002064</v>
       </c>
       <c r="H75">
         <v>0.008038</v>
@@ -6178,23 +6172,23 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="4">
-        <v>192</v>
-      </c>
-      <c r="C76" s="4">
-        <v>173</v>
-      </c>
-      <c r="D76" s="6">
-        <v>180099</v>
+        <v>86</v>
+      </c>
+      <c r="B76" s="3">
+        <v>124</v>
+      </c>
+      <c r="C76" s="3">
+        <v>131</v>
+      </c>
+      <c r="D76" s="4">
+        <v>905034</v>
       </c>
       <c r="E76" s="3">
-        <v>2084</v>
+        <v>1800</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
-        <v>0.002084</v>
+        <f>E76/1000000</f>
+        <v>0.0018</v>
       </c>
       <c r="H76">
         <v>0.014136</v>
@@ -6202,23 +6196,23 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="4">
-        <v>86</v>
-      </c>
-      <c r="C77" s="4">
-        <v>142</v>
-      </c>
-      <c r="D77" s="6">
-        <v>195329</v>
+        <v>87</v>
+      </c>
+      <c r="B77" s="3">
+        <v>123</v>
+      </c>
+      <c r="C77" s="3">
+        <v>105</v>
+      </c>
+      <c r="D77" s="4">
+        <v>201678</v>
       </c>
       <c r="E77" s="3">
-        <v>2680</v>
+        <v>1827</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
-        <v>0.00268</v>
+        <f>E77/1000000</f>
+        <v>0.001827</v>
       </c>
       <c r="H77">
         <v>0.013556</v>
@@ -6226,23 +6220,23 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="4">
-        <v>141</v>
-      </c>
-      <c r="C78" s="4">
-        <v>162</v>
-      </c>
-      <c r="D78" s="6">
-        <v>154378</v>
+        <v>88</v>
+      </c>
+      <c r="B78" s="3">
+        <v>117</v>
+      </c>
+      <c r="C78" s="3">
+        <v>138</v>
+      </c>
+      <c r="D78" s="4">
+        <v>110061</v>
       </c>
       <c r="E78" s="3">
-        <v>2134</v>
+        <v>2185</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
-        <v>0.002134</v>
+        <f>E78/1000000</f>
+        <v>0.002185</v>
       </c>
       <c r="H78">
         <v>0.014513</v>
@@ -6250,23 +6244,23 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="3">
+        <v>116</v>
+      </c>
+      <c r="C79" s="3">
+        <v>123</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="4">
-        <v>101</v>
-      </c>
-      <c r="C79" s="4">
-        <v>84</v>
-      </c>
-      <c r="D79" s="6">
-        <v>174739</v>
-      </c>
       <c r="E79" s="3">
-        <v>2778</v>
+        <v>1555</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
-        <v>0.002778</v>
+        <f>E79/1000000</f>
+        <v>0.001555</v>
       </c>
       <c r="H79">
         <v>0.013873</v>
@@ -6276,21 +6270,21 @@
       <c r="A80" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="4">
-        <v>218</v>
-      </c>
-      <c r="C80" s="4">
-        <v>172</v>
-      </c>
-      <c r="D80" s="6">
-        <v>635601</v>
+      <c r="B80" s="3">
+        <v>111</v>
+      </c>
+      <c r="C80" s="3">
+        <v>106</v>
+      </c>
+      <c r="D80" s="4">
+        <v>460223</v>
       </c>
       <c r="E80" s="3">
-        <v>2225</v>
+        <v>1732</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
-        <v>0.002225</v>
+        <f>E80/1000000</f>
+        <v>0.001732</v>
       </c>
       <c r="H80">
         <v>0.01433</v>
@@ -6300,21 +6294,21 @@
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="4">
-        <v>423</v>
-      </c>
-      <c r="C81" s="4">
-        <v>472</v>
-      </c>
-      <c r="D81" s="6">
-        <v>484574</v>
+      <c r="B81" s="3">
+        <v>101</v>
+      </c>
+      <c r="C81" s="3">
+        <v>84</v>
+      </c>
+      <c r="D81" s="4">
+        <v>174739</v>
       </c>
       <c r="E81" s="3">
-        <v>10513</v>
+        <v>2778</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
-        <v>0.010513</v>
+        <f>E81/1000000</f>
+        <v>0.002778</v>
       </c>
       <c r="H81">
         <v>0.070568</v>
@@ -6324,21 +6318,21 @@
       <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="4">
-        <v>306</v>
-      </c>
-      <c r="C82" s="4">
-        <v>323</v>
-      </c>
-      <c r="D82" s="6">
-        <v>617479</v>
+      <c r="B82" s="3">
+        <v>86</v>
+      </c>
+      <c r="C82" s="3">
+        <v>142</v>
+      </c>
+      <c r="D82" s="4">
+        <v>195329</v>
       </c>
       <c r="E82" s="3">
-        <v>7389</v>
+        <v>2680</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
-        <v>0.007389</v>
+        <f>E82/1000000</f>
+        <v>0.00268</v>
       </c>
       <c r="H82">
         <v>0.03365</v>
@@ -6348,21 +6342,21 @@
       <c r="A83" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="4">
-        <v>166</v>
-      </c>
-      <c r="C83" s="4">
-        <v>147</v>
-      </c>
-      <c r="D83" s="6">
-        <v>889166</v>
+      <c r="B83" s="3">
+        <v>65</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44</v>
+      </c>
+      <c r="D83" s="4">
+        <v>458201</v>
       </c>
       <c r="E83" s="3">
-        <v>2832</v>
+        <v>1344</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
-        <v>0.002832</v>
+        <f>E83/1000000</f>
+        <v>0.001344</v>
       </c>
       <c r="H83">
         <v>0.014506</v>
@@ -6372,21 +6366,21 @@
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="4">
-        <v>182</v>
-      </c>
-      <c r="C84" s="4">
-        <v>184</v>
-      </c>
-      <c r="D84" s="6">
-        <v>736389</v>
+      <c r="B84" s="3">
+        <v>58</v>
+      </c>
+      <c r="C84" s="3">
+        <v>41</v>
+      </c>
+      <c r="D84" s="4">
+        <v>684542</v>
       </c>
       <c r="E84" s="3">
-        <v>2278</v>
+        <v>1076</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
-        <v>0.002278</v>
+        <f>E84/1000000</f>
+        <v>0.001076</v>
       </c>
       <c r="H84">
         <v>0.008112</v>
@@ -6396,21 +6390,21 @@
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="4">
-        <v>146</v>
-      </c>
-      <c r="C85" s="4">
-        <v>163</v>
-      </c>
-      <c r="D85" s="6">
-        <v>832886</v>
+      <c r="B85" s="3">
+        <v>56</v>
+      </c>
+      <c r="C85" s="3">
+        <v>55</v>
+      </c>
+      <c r="D85" s="4">
+        <v>825704</v>
       </c>
       <c r="E85" s="3">
-        <v>2750</v>
+        <v>1387</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
-        <v>0.00275</v>
+        <f>E85/1000000</f>
+        <v>0.001387</v>
       </c>
       <c r="H85">
         <v>0.016493</v>
@@ -6420,21 +6414,21 @@
       <c r="A86" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="4">
-        <v>171</v>
-      </c>
-      <c r="C86" s="4">
-        <v>169</v>
-      </c>
-      <c r="D86" s="6">
-        <v>801645</v>
+      <c r="B86" s="3">
+        <v>48</v>
+      </c>
+      <c r="C86" s="3">
+        <v>61</v>
+      </c>
+      <c r="D86" s="4">
+        <v>683789</v>
       </c>
       <c r="E86" s="3">
-        <v>2399</v>
+        <v>1044</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
-        <v>0.002399</v>
+        <f>E86/1000000</f>
+        <v>0.001044</v>
       </c>
       <c r="H86">
         <v>0.014608</v>
@@ -6444,27 +6438,30 @@
       <c r="A87" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="4">
-        <v>408</v>
-      </c>
-      <c r="C87" s="4">
-        <v>401</v>
-      </c>
-      <c r="D87" s="6">
-        <v>761394</v>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
       </c>
       <c r="E87" s="3">
-        <v>9262</v>
+        <v>737</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
-        <v>0.009262</v>
+        <f>E87/1000000</f>
+        <v>0.000737</v>
       </c>
       <c r="H87">
         <v>0.051324</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F87">
+    <sortCondition ref="B2:B87" descending="1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6476,7 +6473,7 @@
   <sheetPr/>
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -6515,16 +6512,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
+        <v>80</v>
+      </c>
+      <c r="B2" s="3">
         <v>140</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>165</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
+      <c r="D2" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E2" s="3">
         <v>2598</v>
@@ -6539,15 +6536,15 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
+        <v>86</v>
+      </c>
+      <c r="B3" s="3">
         <v>124</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>131</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>905034</v>
       </c>
       <c r="E3" s="3">
@@ -6563,15 +6560,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
         <v>559</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>564</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>135391</v>
       </c>
       <c r="E4" s="3">
@@ -6587,15 +6584,15 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
         <v>572</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>574</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>135266</v>
       </c>
       <c r="E5" s="3">
@@ -6611,15 +6608,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
         <v>217</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>207</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>957038</v>
       </c>
       <c r="E6" s="3">
@@ -6635,15 +6632,15 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3">
         <v>196</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>176</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>758547</v>
       </c>
       <c r="E7" s="3">
@@ -6659,15 +6656,15 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
         <v>159</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>185</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>729684</v>
       </c>
       <c r="E8" s="3">
@@ -6683,15 +6680,15 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
         <v>179</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>153</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>137681</v>
       </c>
       <c r="E9" s="3">
@@ -6707,15 +6704,15 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
         <v>174</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>265</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>471802</v>
       </c>
       <c r="E10" s="3">
@@ -6731,15 +6728,15 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
         <v>192</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>200</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>654036</v>
       </c>
       <c r="E11" s="3">
@@ -6755,15 +6752,15 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3">
         <v>206</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>165</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>66314</v>
       </c>
       <c r="E12" s="3">
@@ -6779,15 +6776,15 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4">
+        <v>85</v>
+      </c>
+      <c r="B13" s="3">
         <v>126</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>159</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>907509</v>
       </c>
       <c r="E13" s="3">
@@ -6803,15 +6800,15 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3">
         <v>192</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>203</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>554706</v>
       </c>
       <c r="E14" s="3">
@@ -6827,15 +6824,15 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
         <v>201</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>189</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>72962</v>
       </c>
       <c r="E15" s="3">
@@ -6851,15 +6848,15 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3">
         <v>188</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>204</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>100982</v>
       </c>
       <c r="E16" s="3">
@@ -6875,15 +6872,15 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4">
+        <v>88</v>
+      </c>
+      <c r="B17" s="3">
         <v>117</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>138</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>110061</v>
       </c>
       <c r="E17" s="3">
@@ -6899,15 +6896,15 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
         <v>208</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>201</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>101171</v>
       </c>
       <c r="E18" s="3">
@@ -6923,15 +6920,15 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
         <v>339</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>289</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>909804</v>
       </c>
       <c r="E19" s="3">
@@ -6947,15 +6944,15 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="4">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
         <v>226</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>240</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>166624</v>
       </c>
       <c r="E20" s="3">
@@ -6971,15 +6968,15 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="4">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
         <v>192</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>189</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>183666</v>
       </c>
       <c r="E21" s="3">
@@ -6995,15 +6992,15 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
         <v>528</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>519</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>947916</v>
       </c>
       <c r="E22" s="3">
@@ -7019,15 +7016,15 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="4">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3">
         <v>145</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>158</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>641592</v>
       </c>
       <c r="E23" s="3">
@@ -7043,15 +7040,15 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3">
         <v>451</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>538</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>922615</v>
       </c>
       <c r="E24" s="3">
@@ -7067,15 +7064,15 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="4">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3">
         <v>164</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>173</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>928778</v>
       </c>
       <c r="E25" s="3">
@@ -7091,16 +7088,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="4">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3">
         <v>176</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>171</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>33</v>
+      <c r="D26" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E26" s="3">
         <v>3261</v>
@@ -7115,15 +7112,15 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="4">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3">
         <v>131</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>121</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>668631</v>
       </c>
       <c r="E27" s="3">
@@ -7139,15 +7136,15 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
         <v>242</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>282</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>106303</v>
       </c>
       <c r="E28" s="3">
@@ -7163,15 +7160,15 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="4">
+        <v>78</v>
+      </c>
+      <c r="B29" s="3">
         <v>144</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>154</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>180546</v>
       </c>
       <c r="E29" s="3">
@@ -7187,16 +7184,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="4">
+        <v>89</v>
+      </c>
+      <c r="B30" s="3">
         <v>116</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>123</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
+      <c r="D30" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="3">
         <v>1551</v>
@@ -7211,15 +7208,15 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="4">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3">
         <v>137</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>130</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>143426</v>
       </c>
       <c r="E31" s="3">
@@ -7235,15 +7232,15 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="4">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
         <v>594</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>501</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>713091</v>
       </c>
       <c r="E32" s="3">
@@ -7259,15 +7256,15 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="4">
+        <v>69</v>
+      </c>
+      <c r="B33" s="3">
         <v>153</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>144</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="4">
         <v>182352</v>
       </c>
       <c r="E33" s="3">
@@ -7283,15 +7280,15 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3">
         <v>219</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>200</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>103443</v>
       </c>
       <c r="E34" s="3">
@@ -7307,15 +7304,15 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="4">
+        <v>55</v>
+      </c>
+      <c r="B35" s="3">
         <v>176</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>130</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>159832</v>
       </c>
       <c r="E35" s="3">
@@ -7331,15 +7328,15 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="4">
+        <v>97</v>
+      </c>
+      <c r="B36" s="3">
         <v>48</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>61</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>683789</v>
       </c>
       <c r="E36" s="3">
@@ -7355,15 +7352,15 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="4">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3">
         <v>187</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>191</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>182373</v>
       </c>
       <c r="E37" s="3">
@@ -7379,15 +7376,15 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="4">
+        <v>95</v>
+      </c>
+      <c r="B38" s="3">
         <v>58</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>41</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>684542</v>
       </c>
       <c r="E38" s="3">
@@ -7403,15 +7400,15 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
         <v>565</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>553</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>715643</v>
       </c>
       <c r="E39" s="3">
@@ -7427,16 +7424,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="4">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3">
         <v>145</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>111</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>49</v>
+      <c r="D40" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E40" s="3">
         <v>2828</v>
@@ -7451,15 +7448,15 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="4">
+        <v>27</v>
+      </c>
+      <c r="B41" s="3">
         <v>236</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>267</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>725831</v>
       </c>
       <c r="E41" s="3">
@@ -7475,16 +7472,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="4">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3">
         <v>188</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>157</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>52</v>
+      <c r="D42" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E42" s="3">
         <v>2605</v>
@@ -7499,15 +7496,15 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="4">
+        <v>96</v>
+      </c>
+      <c r="B43" s="3">
         <v>56</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>55</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="4">
         <v>825704</v>
       </c>
       <c r="E43" s="3">
@@ -7523,15 +7520,15 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="4">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3">
         <v>220</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>192</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="4">
         <v>186084</v>
       </c>
       <c r="E44" s="3">
@@ -7547,15 +7544,15 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="4">
+        <v>94</v>
+      </c>
+      <c r="B45" s="3">
         <v>65</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>458201</v>
       </c>
       <c r="E45" s="3">
@@ -7571,15 +7568,15 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="4">
+        <v>67</v>
+      </c>
+      <c r="B46" s="3">
         <v>158</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>198</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>123861</v>
       </c>
       <c r="E46" s="3">
@@ -7595,15 +7592,15 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="4">
+        <v>48</v>
+      </c>
+      <c r="B47" s="3">
         <v>187</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>169</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>106562</v>
       </c>
       <c r="E47" s="3">
@@ -7619,15 +7616,15 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="4">
+        <v>63</v>
+      </c>
+      <c r="B48" s="3">
         <v>165</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>178</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="4">
         <v>710279</v>
       </c>
       <c r="E48" s="3">
@@ -7643,15 +7640,15 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4">
+        <v>91</v>
+      </c>
+      <c r="B49" s="3">
         <v>111</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>106</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>460223</v>
       </c>
       <c r="E49" s="3">
@@ -7667,15 +7664,15 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="4">
+        <v>68</v>
+      </c>
+      <c r="B50" s="3">
         <v>156</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>129</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="4">
         <v>115178</v>
       </c>
       <c r="E50" s="3">
@@ -7691,15 +7688,15 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="4">
+        <v>65</v>
+      </c>
+      <c r="B51" s="3">
         <v>160</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>195</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>135896</v>
       </c>
       <c r="E51" s="3">
@@ -7715,15 +7712,15 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="4">
+        <v>98</v>
+      </c>
+      <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>0</v>
       </c>
       <c r="E52" s="3">
@@ -7739,15 +7736,15 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="4">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3">
         <v>500</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>496</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>700898</v>
       </c>
       <c r="E53" s="3">
@@ -7763,15 +7760,15 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="4">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3">
         <v>805</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>761</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="4">
         <v>763285</v>
       </c>
       <c r="E54" s="3">
@@ -7787,15 +7784,15 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="4">
+        <v>37</v>
+      </c>
+      <c r="B55" s="3">
         <v>199</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="3">
         <v>154</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="4">
         <v>89964</v>
       </c>
       <c r="E55" s="3">
@@ -7811,15 +7808,15 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="4">
+        <v>84</v>
+      </c>
+      <c r="B56" s="3">
         <v>130</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="3">
         <v>183</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="4">
         <v>919513</v>
       </c>
       <c r="E56" s="3">
@@ -7835,15 +7832,15 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="4">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3">
         <v>202</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>125</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="4">
         <v>708067</v>
       </c>
       <c r="E57" s="3">
@@ -7859,15 +7856,15 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="4">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3">
         <v>679</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>687</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="4">
         <v>72782</v>
       </c>
       <c r="E58" s="3">
@@ -7883,15 +7880,15 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="4">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3">
         <v>166</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>157</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="4">
         <v>914047</v>
       </c>
       <c r="E59" s="3">
@@ -7907,15 +7904,15 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="4">
+        <v>22</v>
+      </c>
+      <c r="B60" s="3">
         <v>327</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="3">
         <v>412</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>86392</v>
       </c>
       <c r="E60" s="3">
@@ -7931,15 +7928,15 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
         <v>167</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>153</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>359749</v>
       </c>
       <c r="E61" s="3">
@@ -7955,15 +7952,15 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="4">
+        <v>38</v>
+      </c>
+      <c r="B62" s="3">
         <v>199</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>152</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>984563</v>
       </c>
       <c r="E62" s="3">
@@ -7979,15 +7976,15 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="4">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3">
         <v>299</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>240</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="4">
         <v>639523</v>
       </c>
       <c r="E63" s="3">
@@ -8003,15 +8000,15 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="4">
+        <v>23</v>
+      </c>
+      <c r="B64" s="3">
         <v>308</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>262</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="4">
         <v>307098</v>
       </c>
       <c r="E64" s="3">
@@ -8027,15 +8024,15 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="4">
+        <v>15</v>
+      </c>
+      <c r="B65" s="3">
         <v>458</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>394</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>421486</v>
       </c>
       <c r="E65" s="3">
@@ -8051,15 +8048,15 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="4">
+        <v>56</v>
+      </c>
+      <c r="B66" s="3">
         <v>175</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="3">
         <v>212</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="4">
         <v>164485</v>
       </c>
       <c r="E66" s="3">
@@ -8075,15 +8072,15 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="4">
+        <v>19</v>
+      </c>
+      <c r="B67" s="3">
         <v>414</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>387</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="4">
         <v>185689</v>
       </c>
       <c r="E67" s="3">
@@ -8099,15 +8096,15 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="4">
+        <v>58</v>
+      </c>
+      <c r="B68" s="3">
         <v>172</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="3">
         <v>192</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>158829</v>
       </c>
       <c r="E68" s="3">
@@ -8123,15 +8120,15 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="4">
+        <v>71</v>
+      </c>
+      <c r="B69" s="3">
         <v>151</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="3">
         <v>147</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="4">
         <v>152779</v>
       </c>
       <c r="E69" s="3">
@@ -8147,15 +8144,15 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="4">
+        <v>73</v>
+      </c>
+      <c r="B70" s="3">
         <v>148</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="3">
         <v>131</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>210305</v>
       </c>
       <c r="E70" s="3">
@@ -8171,15 +8168,15 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="4">
+        <v>87</v>
+      </c>
+      <c r="B71" s="3">
         <v>123</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="3">
         <v>105</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="4">
         <v>201678</v>
       </c>
       <c r="E71" s="3">
@@ -8195,15 +8192,15 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" s="4">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3">
         <v>150</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="3">
         <v>148</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>152771</v>
       </c>
       <c r="E72" s="3">
@@ -8219,15 +8216,15 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="3">
         <v>153</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="3">
         <v>145</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>151764</v>
       </c>
       <c r="E73" s="3">
@@ -8243,15 +8240,15 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="4">
+        <v>16</v>
+      </c>
+      <c r="B74" s="3">
         <v>455</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="3">
         <v>372</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>227503</v>
       </c>
       <c r="E74" s="3">
@@ -8267,16 +8264,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="4">
+        <v>49</v>
+      </c>
+      <c r="B75" s="3">
         <v>183</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="3">
         <v>194</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>86</v>
+      <c r="D75" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E75" s="3">
         <v>2534</v>
@@ -8291,15 +8288,15 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="4">
+        <v>43</v>
+      </c>
+      <c r="B76" s="3">
         <v>192</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="3">
         <v>173</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>180099</v>
       </c>
       <c r="E76" s="3">
@@ -8315,15 +8312,15 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="4">
+        <v>93</v>
+      </c>
+      <c r="B77" s="3">
         <v>86</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="3">
         <v>142</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="4">
         <v>195329</v>
       </c>
       <c r="E77" s="3">
@@ -8339,15 +8336,15 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B78" s="4">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
         <v>141</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="3">
         <v>162</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>154378</v>
       </c>
       <c r="E78" s="3">
@@ -8363,15 +8360,15 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="4">
+        <v>92</v>
+      </c>
+      <c r="B79" s="3">
         <v>101</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="3">
         <v>84</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="4">
         <v>174739</v>
       </c>
       <c r="E79" s="3">
@@ -8387,15 +8384,15 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="4">
+        <v>31</v>
+      </c>
+      <c r="B80" s="3">
         <v>218</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="3">
         <v>172</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>635601</v>
       </c>
       <c r="E80" s="3">
@@ -8411,15 +8408,15 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="4">
+        <v>18</v>
+      </c>
+      <c r="B81" s="3">
         <v>423</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="3">
         <v>472</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>484574</v>
       </c>
       <c r="E81" s="3">
@@ -8435,15 +8432,15 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="4">
+        <v>24</v>
+      </c>
+      <c r="B82" s="3">
         <v>306</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="3">
         <v>323</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>617479</v>
       </c>
       <c r="E82" s="3">
@@ -8459,15 +8456,15 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" s="4">
+        <v>62</v>
+      </c>
+      <c r="B83" s="3">
         <v>166</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="3">
         <v>147</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>889166</v>
       </c>
       <c r="E83" s="3">
@@ -8483,15 +8480,15 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="4">
+        <v>51</v>
+      </c>
+      <c r="B84" s="3">
         <v>182</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>184</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>736389</v>
       </c>
       <c r="E84" s="3">
@@ -8507,15 +8504,15 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="4">
+        <v>74</v>
+      </c>
+      <c r="B85" s="3">
         <v>146</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="3">
         <v>163</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>832886</v>
       </c>
       <c r="E85" s="3">
@@ -8531,15 +8528,15 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B86" s="4">
+        <v>59</v>
+      </c>
+      <c r="B86" s="3">
         <v>171</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="3">
         <v>169</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>801645</v>
       </c>
       <c r="E86" s="3">
@@ -8555,15 +8552,15 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="4">
+        <v>20</v>
+      </c>
+      <c r="B87" s="3">
         <v>408</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="3">
         <v>401</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>761394</v>
       </c>
       <c r="E87" s="3">
@@ -8757,7 +8754,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>140</v>
@@ -8766,7 +8763,7 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>84048</v>
@@ -8778,7 +8775,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>124</v>
@@ -8799,7 +8796,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>559</v>
@@ -8820,7 +8817,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>572</v>
@@ -8841,7 +8838,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>217</v>
@@ -8862,7 +8859,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>196</v>
@@ -8883,7 +8880,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>159</v>
@@ -8904,7 +8901,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>179</v>
@@ -8925,7 +8922,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>174</v>
@@ -8946,7 +8943,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>192</v>
@@ -8967,7 +8964,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>206</v>
@@ -8988,7 +8985,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>126</v>
@@ -9009,7 +9006,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>192</v>
@@ -9030,7 +9027,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>201</v>
@@ -9051,7 +9048,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>188</v>
@@ -9072,7 +9069,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>117</v>
@@ -9093,7 +9090,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>208</v>
@@ -9114,7 +9111,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>339</v>
@@ -9135,7 +9132,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>226</v>
@@ -9156,7 +9153,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>192</v>
@@ -9177,7 +9174,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>528</v>
@@ -9198,7 +9195,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>145</v>
@@ -9219,7 +9216,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>451</v>
@@ -9240,7 +9237,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>164</v>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>176</v>
@@ -9270,7 +9267,7 @@
         <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>19763</v>
@@ -9282,7 +9279,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>131</v>
@@ -9303,7 +9300,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>242</v>
@@ -9324,7 +9321,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>144</v>
@@ -9345,7 +9342,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>116</v>
@@ -9354,7 +9351,7 @@
         <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E30">
         <v>9783</v>
@@ -9366,7 +9363,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>137</v>
@@ -9387,7 +9384,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>594</v>
@@ -9408,7 +9405,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>153</v>
@@ -9429,7 +9426,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>219</v>
@@ -9450,7 +9447,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>176</v>
@@ -9471,7 +9468,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -9492,7 +9489,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>187</v>
@@ -9513,7 +9510,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>58</v>
@@ -9534,7 +9531,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>565</v>
@@ -9555,7 +9552,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>145</v>
@@ -9564,7 +9561,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E40">
         <v>15100</v>
@@ -9576,7 +9573,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>236</v>
@@ -9597,7 +9594,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>188</v>
@@ -9606,7 +9603,7 @@
         <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>13383</v>
@@ -9618,7 +9615,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -9639,7 +9636,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>220</v>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>65</v>
@@ -9681,7 +9678,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>158</v>
@@ -9702,7 +9699,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>187</v>
@@ -9723,7 +9720,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>165</v>
@@ -9744,7 +9741,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>111</v>
@@ -9765,7 +9762,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>156</v>
@@ -9786,7 +9783,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>160</v>
@@ -9807,7 +9804,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -9828,7 +9825,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>500</v>
@@ -9849,7 +9846,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>805</v>
@@ -9870,7 +9867,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>199</v>
@@ -9891,7 +9888,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>202</v>
@@ -9933,7 +9930,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>679</v>
@@ -9954,7 +9951,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>166</v>
@@ -9975,7 +9972,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>327</v>
@@ -9996,7 +9993,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>167</v>
@@ -10017,7 +10014,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>199</v>
@@ -10038,7 +10035,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>299</v>
@@ -10059,7 +10056,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>308</v>
@@ -10080,7 +10077,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>458</v>
@@ -10101,7 +10098,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>175</v>
@@ -10122,7 +10119,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>414</v>
@@ -10143,7 +10140,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>172</v>
@@ -10164,7 +10161,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>151</v>
@@ -10185,7 +10182,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>148</v>
@@ -10206,7 +10203,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>123</v>
@@ -10227,7 +10224,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>150</v>
@@ -10248,7 +10245,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>153</v>
@@ -10269,7 +10266,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>455</v>
@@ -10290,7 +10287,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B75">
         <v>183</v>
@@ -10299,7 +10296,7 @@
         <v>194</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <v>8038</v>
@@ -10311,7 +10308,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B76">
         <v>192</v>
@@ -10332,7 +10329,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>86</v>
@@ -10353,7 +10350,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>141</v>
@@ -10374,7 +10371,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>101</v>
@@ -10395,7 +10392,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B80">
         <v>218</v>
@@ -10416,7 +10413,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>423</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>306</v>
@@ -10458,7 +10455,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B83">
         <v>166</v>
@@ -10479,7 +10476,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B84">
         <v>182</v>
@@ -10500,7 +10497,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B85">
         <v>146</v>
@@ -10521,7 +10518,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B86">
         <v>171</v>
@@ -10542,7 +10539,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <v>408</v>
@@ -10608,7 +10605,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>140</v>
@@ -10617,7 +10614,7 @@
         <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>15184</v>
@@ -10629,7 +10626,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>124</v>
@@ -10650,7 +10647,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>559</v>
@@ -10671,7 +10668,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>572</v>
@@ -10692,7 +10689,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>217</v>
@@ -10713,7 +10710,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>196</v>
@@ -10734,7 +10731,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>159</v>
@@ -10755,7 +10752,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>179</v>
@@ -10776,7 +10773,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>174</v>
@@ -10797,7 +10794,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>192</v>
@@ -10818,7 +10815,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>206</v>
@@ -10839,7 +10836,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B13">
         <v>126</v>
@@ -10860,7 +10857,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>192</v>
@@ -10881,7 +10878,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>201</v>
@@ -10896,13 +10893,13 @@
         <v>15666</v>
       </c>
       <c r="F15">
-        <f>E15/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.015666</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>188</v>
@@ -10923,7 +10920,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>117</v>
@@ -10944,7 +10941,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>208</v>
@@ -10965,7 +10962,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>339</v>
@@ -10986,7 +10983,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>226</v>
@@ -11007,7 +11004,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>192</v>
@@ -11028,7 +11025,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>528</v>
@@ -11049,7 +11046,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>145</v>
@@ -11070,7 +11067,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>451</v>
@@ -11091,7 +11088,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>164</v>
@@ -11112,7 +11109,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>176</v>
@@ -11121,7 +11118,7 @@
         <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>19856</v>
@@ -11133,7 +11130,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>131</v>
@@ -11154,7 +11151,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>242</v>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>144</v>
@@ -11196,7 +11193,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>116</v>
@@ -11205,7 +11202,7 @@
         <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E30">
         <v>9669</v>
@@ -11217,7 +11214,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>137</v>
@@ -11238,7 +11235,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>594</v>
@@ -11259,7 +11256,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B33">
         <v>153</v>
@@ -11280,7 +11277,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>219</v>
@@ -11301,7 +11298,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>176</v>
@@ -11322,7 +11319,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>48</v>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>187</v>
@@ -11364,7 +11361,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>58</v>
@@ -11385,7 +11382,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>565</v>
@@ -11406,7 +11403,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>145</v>
@@ -11415,7 +11412,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="E40">
         <v>15059</v>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>236</v>
@@ -11448,7 +11445,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>188</v>
@@ -11457,7 +11454,7 @@
         <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>13591</v>
@@ -11469,7 +11466,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>56</v>
@@ -11490,7 +11487,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B44">
         <v>220</v>
@@ -11511,7 +11508,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>65</v>
@@ -11532,7 +11529,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>158</v>
@@ -11553,7 +11550,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>187</v>
@@ -11574,7 +11571,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>165</v>
@@ -11595,7 +11592,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>111</v>
@@ -11616,7 +11613,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B50">
         <v>156</v>
@@ -11637,7 +11634,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>160</v>
@@ -11658,7 +11655,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -11679,7 +11676,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>500</v>
@@ -11700,7 +11697,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>805</v>
@@ -11721,7 +11718,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>199</v>
@@ -11742,7 +11739,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>130</v>
@@ -11763,7 +11760,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>202</v>
@@ -11784,7 +11781,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>679</v>
@@ -11805,7 +11802,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>166</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>327</v>
@@ -11847,7 +11844,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>167</v>
@@ -11868,7 +11865,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>199</v>
@@ -11889,7 +11886,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>299</v>
@@ -11910,7 +11907,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B64">
         <v>308</v>
@@ -11931,7 +11928,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>458</v>
@@ -11952,7 +11949,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B66">
         <v>175</v>
@@ -11973,7 +11970,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>414</v>
@@ -11994,7 +11991,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>172</v>
@@ -12015,7 +12012,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B69">
         <v>151</v>
@@ -12036,7 +12033,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>148</v>
@@ -12057,7 +12054,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B71">
         <v>123</v>
@@ -12078,7 +12075,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>150</v>
@@ -12099,7 +12096,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>153</v>
@@ -12120,7 +12117,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B74">
         <v>455</v>
@@ -12141,7 +12138,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B75">
         <v>183</v>
@@ -12150,7 +12147,7 @@
         <v>194</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <v>15495</v>
@@ -12162,7 +12159,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B76">
         <v>192</v>
@@ -12183,7 +12180,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>86</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>141</v>
@@ -12225,7 +12222,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>101</v>
@@ -12246,7 +12243,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B80">
         <v>218</v>
@@ -12267,7 +12264,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>423</v>
@@ -12288,7 +12285,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>306</v>
@@ -12309,7 +12306,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B83">
         <v>166</v>
@@ -12330,7 +12327,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B84">
         <v>182</v>
@@ -12351,7 +12348,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B85">
         <v>146</v>
@@ -12372,7 +12369,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B86">
         <v>171</v>
@@ -12393,7 +12390,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <v>408</v>
